--- a/DDAf_2025_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{834BE73D-0CC8-4C30-9150-7626FEFE2762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBBBC7C0-2340-4C86-8B5C-5448318AB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{5999B1CD-EBDB-4999-A40D-B638AD331B83}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E398B3BB-678C-4A2F-A67B-30A7AAFAB9A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="178">
   <si>
     <t>Table 1: Indicators of growth, employment and inequality</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
     <t>Malawi</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>MOZ</t>
   </si>
   <si>
@@ -549,13 +549,13 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
   </si>
   <si>
-    <t>Source: World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division, United Nations Development Programme Human Development Data Online (2025 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025), IMF World Economic Outlook Database April 2025, International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
+    <t>Source: World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division, United Nations Development Programme Human Development Data Online (2025 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025), IMF World Economic Outlook Database October 2025, International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
   </si>
   <si>
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
@@ -1902,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E959400-40A7-4B3B-9F81-A8E8145B83BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25212625-CD9E-407F-8A3B-0952091E706F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1910,14 +1910,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.140625" style="200" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="200" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1935,7 +1935,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1993,16 +1993,16 @@
         <v>37885.849000000002</v>
       </c>
       <c r="D3" s="13">
-        <v>382666.33299899998</v>
+        <v>383923.47910400003</v>
       </c>
       <c r="E3" s="14">
-        <v>115945.577471</v>
+        <v>115213.888615</v>
       </c>
       <c r="F3" s="15">
-        <v>4.5033830000000004</v>
-      </c>
-      <c r="G3" s="16">
-        <v>10078.614374999999</v>
+        <v>4.4239579999999998</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="12">
         <v>28.231788999999999</v>
@@ -2029,18 +2029,18 @@
         <v>60.303804999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="23">
         <v>2521.1390000000001</v>
       </c>
       <c r="D4" s="24">
-        <v>51779.550534000002</v>
+        <v>51854.639236000003</v>
       </c>
       <c r="E4" s="25">
         <v>19356.320274999998</v>
@@ -2048,11 +2048,11 @@
       <c r="F4" s="26">
         <v>-2.9898690000000001</v>
       </c>
-      <c r="G4" s="27">
-        <v>19038.741319000001</v>
+      <c r="G4" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="28">
-        <v>2.827467</v>
+        <v>2.8203079999999998</v>
       </c>
       <c r="I4" s="29">
         <v>54.9</v>
@@ -2076,27 +2076,27 @@
         <v>28.825192999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="35">
         <v>1242.8219999999999</v>
       </c>
       <c r="D5" s="24">
-        <v>15125.085297</v>
+        <v>14688.842135999999</v>
       </c>
       <c r="E5" s="36">
-        <v>5198.5222720000002</v>
+        <v>4943.5009570000002</v>
       </c>
       <c r="F5" s="37">
-        <v>3.6531449999999999</v>
-      </c>
-      <c r="G5" s="38">
-        <v>12862.193552000001</v>
+        <v>2.7931400000000002</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H5" s="39">
         <v>4.0341440000000004</v>
@@ -2123,30 +2123,30 @@
         <v>32.899607000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="35">
         <v>2337.4229999999998</v>
       </c>
       <c r="D6" s="24">
-        <v>7110.3272100000004</v>
+        <v>7097.9362719999999</v>
       </c>
       <c r="E6" s="36">
-        <v>2308.8068819999999</v>
+        <v>2298.0489560000001</v>
       </c>
       <c r="F6" s="37">
-        <v>2.6195490000000001</v>
-      </c>
-      <c r="G6" s="38">
-        <v>3286.210716</v>
+        <v>2.1869420000000002</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H6" s="39">
-        <v>6.101763</v>
+        <v>5.1911860000000001</v>
       </c>
       <c r="I6" s="40">
         <v>44.9</v>
@@ -2164,33 +2164,33 @@
         <v>57.767000000000003</v>
       </c>
       <c r="N6" s="44">
-        <v>80.853999999999999</v>
+        <v>89.141000000000005</v>
       </c>
       <c r="O6" s="41">
         <v>32.978721999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="35">
         <v>21655.286</v>
       </c>
       <c r="D7" s="24">
-        <v>40256.310171999998</v>
+        <v>40314.688316</v>
       </c>
       <c r="E7" s="36">
-        <v>11796.662279</v>
+        <v>11796.94671</v>
       </c>
       <c r="F7" s="37">
         <v>1.8</v>
       </c>
-      <c r="G7" s="38">
-        <v>1721.566869</v>
+      <c r="G7" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="39">
         <v>32.162004000000003</v>
@@ -2211,13 +2211,13 @@
         <v>66.991</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O7" s="41">
         <v>60.463901</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2228,16 +2228,16 @@
         <v>34631.766000000003</v>
       </c>
       <c r="D8" s="24">
-        <v>58863.784258</v>
+        <v>59146.036167999999</v>
       </c>
       <c r="E8" s="36">
-        <v>21944.430192</v>
+        <v>22745.34074</v>
       </c>
       <c r="F8" s="37">
-        <v>1.8516049999999999</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1688.654123</v>
+        <v>2.148555</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H8" s="39">
         <v>3.201667</v>
@@ -2264,7 +2264,7 @@
         <v>82.858970999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>3030.1309999999999</v>
       </c>
       <c r="D9" s="45">
-        <v>35411.97898</v>
+        <v>35463.332062000001</v>
       </c>
       <c r="E9" s="36">
         <v>13370.038640999999</v>
@@ -2283,8 +2283,8 @@
       <c r="F9" s="37">
         <v>3.7115499999999999</v>
       </c>
-      <c r="G9" s="38">
-        <v>11844.073888000001</v>
+      <c r="G9" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H9" s="39">
         <v>4.239992</v>
@@ -2311,7 +2311,7 @@
         <v>32.010280000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -2322,25 +2322,25 @@
         <v>64007.186999999998</v>
       </c>
       <c r="D10" s="45">
-        <v>989391.48126100004</v>
+        <v>990743.675391</v>
       </c>
       <c r="E10" s="36">
-        <v>400191.39747800003</v>
+        <v>401075.54254400003</v>
       </c>
       <c r="F10" s="37">
-        <v>0.57984599999999997</v>
-      </c>
-      <c r="G10" s="38">
-        <v>15654.360893999999</v>
+        <v>0.53485199999999999</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="39">
-        <v>4.4261059999999999</v>
+        <v>4.425942</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K10" s="42">
         <v>0.74099999999999999</v>
@@ -2352,13 +2352,13 @@
         <v>58.529000000000003</v>
       </c>
       <c r="N10" s="44">
-        <v>34.012999999999998</v>
+        <v>34.901000000000003</v>
       </c>
       <c r="O10" s="41">
         <v>11.260826</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>21314.955999999998</v>
       </c>
       <c r="D11" s="24">
-        <v>90033.425684000002</v>
+        <v>90163.988675999994</v>
       </c>
       <c r="E11" s="25">
         <v>26325.775287</v>
@@ -2377,8 +2377,8 @@
       <c r="F11" s="26">
         <v>4.0431480000000004</v>
       </c>
-      <c r="G11" s="27">
-        <v>4259.9822560000002</v>
+      <c r="G11" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="H11" s="28">
         <v>14.985626</v>
@@ -2405,7 +2405,7 @@
         <v>70.880194000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2416,16 +2416,16 @@
         <v>16634.373</v>
       </c>
       <c r="D12" s="48">
-        <v>86248.813613000006</v>
+        <v>125345.868292</v>
       </c>
       <c r="E12" s="49">
-        <v>35223.949988</v>
+        <v>49154.371446999998</v>
       </c>
       <c r="F12" s="50">
-        <v>2.027304</v>
-      </c>
-      <c r="G12" s="51">
-        <v>5075.6986580000003</v>
+        <v>1.742381</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="52">
         <v>736.10612700000001</v>
@@ -2452,7 +2452,7 @@
         <v>68.692886000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="58"/>
       <c r="B13" s="59" t="s">
         <v>37</v>
@@ -2461,19 +2461,19 @@
         <v>205260.932</v>
       </c>
       <c r="D13" s="61">
-        <v>1756887.0900069999</v>
+        <v>1798742.485654</v>
       </c>
       <c r="E13" s="62">
-        <v>651661.48076499999</v>
+        <v>666279.77417400002</v>
       </c>
       <c r="F13" s="63">
-        <v>1.746164</v>
-      </c>
-      <c r="G13" s="64">
-        <v>8586.0374740000007</v>
+        <v>1.6923429999999999</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="H13" s="65">
-        <v>4.4261059999999999</v>
+        <v>4.425942</v>
       </c>
       <c r="I13" s="66">
         <v>50.6</v>
@@ -2491,13 +2491,13 @@
         <v>66.701228</v>
       </c>
       <c r="N13" s="70">
-        <v>73.314110999999997</v>
+        <v>74.333556000000002</v>
       </c>
       <c r="O13" s="67">
         <v>52.632209000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2508,16 +2508,16 @@
         <v>14047.786</v>
       </c>
       <c r="D14" s="45">
-        <v>13364.099902</v>
+        <v>13385.723711000001</v>
       </c>
       <c r="E14" s="36">
-        <v>4742.5356430000002</v>
+        <v>4826.8649009999999</v>
       </c>
       <c r="F14" s="37">
-        <v>3.5311599999999999</v>
-      </c>
-      <c r="G14" s="38">
-        <v>999.905441</v>
+        <v>3.5485169999999999</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H14" s="39">
         <v>20.188206999999998</v>
@@ -2538,13 +2538,13 @@
         <v>78.608999999999995</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O14" s="41">
         <v>83.658023</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -2555,16 +2555,16 @@
         <v>29123.743999999999</v>
       </c>
       <c r="D15" s="45">
-        <v>162626.217672</v>
+        <v>162748.08798099999</v>
       </c>
       <c r="E15" s="36">
-        <v>52783.749372999999</v>
+        <v>54394.206115000001</v>
       </c>
       <c r="F15" s="37">
-        <v>3.5624910000000001</v>
-      </c>
-      <c r="G15" s="38">
-        <v>5547.6016710000004</v>
+        <v>3.4588399999999999</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H15" s="39">
         <v>4.5083719999999996</v>
@@ -2585,13 +2585,13 @@
         <v>65.197000000000003</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O15" s="41">
         <v>68.221951000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
@@ -2602,19 +2602,19 @@
         <v>5330.69</v>
       </c>
       <c r="D16" s="45">
-        <v>6938.8774810000004</v>
+        <v>7155.7256719999996</v>
       </c>
       <c r="E16" s="36">
-        <v>2830.8932949999999</v>
+        <v>2831.1938850000001</v>
       </c>
       <c r="F16" s="37">
-        <v>1.832891</v>
-      </c>
-      <c r="G16" s="38">
-        <v>1301.6847969999999</v>
+        <v>1.9209309999999999</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H16" s="39">
-        <v>3.4254509999999998</v>
+        <v>1.4746379999999999</v>
       </c>
       <c r="I16" s="40">
         <v>43</v>
@@ -2632,13 +2632,13 @@
         <v>73.576999999999998</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O16" s="41">
         <v>93.328390999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
@@ -2649,19 +2649,19 @@
         <v>20299.123</v>
       </c>
       <c r="D17" s="73">
-        <v>54253.947827000004</v>
+        <v>56513.716925000001</v>
       </c>
       <c r="E17" s="74">
-        <v>19078.022260999998</v>
+        <v>19835.534670000001</v>
       </c>
       <c r="F17" s="75">
-        <v>1.514618</v>
-      </c>
-      <c r="G17" s="76">
-        <v>2942.6668020000002</v>
+        <v>3.5013100000000001</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H17" s="77">
-        <v>5.7061349999999997</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I17" s="78">
         <v>37.4</v>
@@ -2685,7 +2685,7 @@
         <v>89.944411000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
@@ -2696,25 +2696,25 @@
         <v>6332.9610000000002</v>
       </c>
       <c r="D18" s="73">
-        <v>40321.248091000001</v>
+        <v>40189.393966000003</v>
       </c>
       <c r="E18" s="74">
-        <v>14892.821147000001</v>
+        <v>14774.407415</v>
       </c>
       <c r="F18" s="75">
-        <v>2.5957029999999999</v>
-      </c>
-      <c r="G18" s="76">
-        <v>6390.6136539999998</v>
+        <v>2.1121259999999999</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H18" s="77">
-        <v>3.0583670000000001</v>
+        <v>3.0726059999999999</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J18" s="79" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K18" s="80">
         <v>0.64900000000000002</v>
@@ -2726,13 +2726,13 @@
         <v>67.968000000000004</v>
       </c>
       <c r="N18" s="82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O18" s="79">
         <v>74.740556999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -2743,16 +2743,16 @@
         <v>109276.265</v>
       </c>
       <c r="D19" s="24">
-        <v>186800.54489399999</v>
+        <v>195091.138079</v>
       </c>
       <c r="E19" s="25">
-        <v>71010.833927999993</v>
+        <v>74497.798983999994</v>
       </c>
       <c r="F19" s="26">
-        <v>6.4827320000000004</v>
-      </c>
-      <c r="G19" s="27">
-        <v>1810.1415469999999</v>
+        <v>6.4618200000000003</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="H19" s="28">
         <v>17.652528</v>
@@ -2779,7 +2779,7 @@
         <v>82.678854999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -2790,19 +2790,19 @@
         <v>1892.5160000000001</v>
       </c>
       <c r="D20" s="73">
-        <v>33559.627036999998</v>
+        <v>33285.249925999997</v>
       </c>
       <c r="E20" s="74">
-        <v>12544.459594</v>
+        <v>12768.536345</v>
       </c>
       <c r="F20" s="75">
-        <v>1.8609500000000001</v>
-      </c>
-      <c r="G20" s="76">
-        <v>21102.980694999998</v>
+        <v>0.88185899999999995</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="77">
-        <v>3.1620699999999999</v>
+        <v>3.4</v>
       </c>
       <c r="I20" s="78">
         <v>38.5</v>
@@ -2814,19 +2814,19 @@
         <v>0.67400000000000004</v>
       </c>
       <c r="L20" s="81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M20" s="78">
         <v>60.238999999999997</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O20" s="79">
         <v>78.297520000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
@@ -2837,16 +2837,16 @@
         <v>2538.9520000000002</v>
       </c>
       <c r="D21" s="73">
-        <v>54447.864318</v>
+        <v>54675.070585000001</v>
       </c>
       <c r="E21" s="74">
-        <v>20773.768617000002</v>
+        <v>20900.26038</v>
       </c>
       <c r="F21" s="75">
-        <v>3.0736829999999999</v>
-      </c>
-      <c r="G21" s="76">
-        <v>24118.221248999998</v>
+        <v>3.3539210000000002</v>
+      </c>
+      <c r="G21" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H21" s="77">
         <v>1.16404</v>
@@ -2867,13 +2867,13 @@
         <v>51.124000000000002</v>
       </c>
       <c r="N21" s="82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O21" s="79">
         <v>31.104568</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
@@ -2884,16 +2884,16 @@
         <v>235.536</v>
       </c>
       <c r="D22" s="85">
-        <v>1468.139547</v>
+        <v>1472.4575600000001</v>
       </c>
       <c r="E22" s="86">
-        <v>795.71377299999995</v>
+        <v>828.35038499999996</v>
       </c>
       <c r="F22" s="87">
-        <v>0.9</v>
-      </c>
-      <c r="G22" s="88">
-        <v>6194.6816330000001</v>
+        <v>1.1097539999999999</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="89">
         <v>14.416435</v>
@@ -2914,13 +2914,13 @@
         <v>23.54</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O22" s="91">
         <v>34.377518000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="58"/>
       <c r="B23" s="59" t="s">
         <v>56</v>
@@ -2929,16 +2929,16 @@
         <v>189077.573</v>
       </c>
       <c r="D23" s="61">
-        <v>553780.56677000003</v>
+        <v>564516.56440399995</v>
       </c>
       <c r="E23" s="62">
-        <v>199452.797632</v>
+        <v>205657.15307900001</v>
       </c>
       <c r="F23" s="63">
-        <v>4.0958579999999998</v>
-      </c>
-      <c r="G23" s="64">
-        <v>3084.4199680000002</v>
+        <v>4.2194130000000003</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="H23" s="65">
         <v>4.5083719999999996</v>
@@ -2965,7 +2965,7 @@
         <v>80.528311000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>57</v>
       </c>
@@ -2976,25 +2976,25 @@
         <v>866.62800000000004</v>
       </c>
       <c r="D24" s="97">
-        <v>3430.57951</v>
+        <v>3435.583764</v>
       </c>
       <c r="E24" s="98">
-        <v>1456.3039920000001</v>
+        <v>1441.6584769999999</v>
       </c>
       <c r="F24" s="99">
-        <v>3.3381099999999999</v>
-      </c>
-      <c r="G24" s="100">
-        <v>3855.9874719999998</v>
+        <v>3.3388080000000002</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>18</v>
       </c>
       <c r="H24" s="101">
         <v>5.0476520000000002</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K24" s="104">
         <v>0.60299999999999998</v>
@@ -3012,7 +3012,7 @@
         <v>56.635683</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>59</v>
       </c>
@@ -3023,16 +3023,16 @@
         <v>1168.722</v>
       </c>
       <c r="D25" s="45">
-        <v>9136.1998170000006</v>
+        <v>9149.4487800000006</v>
       </c>
       <c r="E25" s="36">
-        <v>4257.0988880000004</v>
+        <v>4291.1122580000001</v>
       </c>
       <c r="F25" s="37">
         <v>6.5127519999999999</v>
       </c>
-      <c r="G25" s="38">
-        <v>8759.4052410000004</v>
+      <c r="G25" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H25" s="39">
         <v>2.1143969999999999</v>
@@ -3059,7 +3059,7 @@
         <v>30.523562999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>61</v>
       </c>
@@ -3070,43 +3070,43 @@
         <v>3535.6030000000001</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K26" s="42">
         <v>0.503</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M26" s="40">
         <v>78.161000000000001</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O26" s="41">
         <v>74.143617000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>63</v>
       </c>
@@ -3117,19 +3117,19 @@
         <v>132059.76699999999</v>
       </c>
       <c r="D27" s="45">
-        <v>442609.11408299999</v>
+        <v>443250.96870600001</v>
       </c>
       <c r="E27" s="36">
-        <v>143122.850691</v>
+        <v>142072.51709000001</v>
       </c>
       <c r="F27" s="37">
         <v>8.0513600000000007</v>
       </c>
-      <c r="G27" s="38">
-        <v>4082.6014660000001</v>
+      <c r="G27" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H27" s="39">
-        <v>21.745999999999999</v>
+        <v>21.044523000000002</v>
       </c>
       <c r="I27" s="40">
         <v>31.1</v>
@@ -3153,7 +3153,7 @@
         <v>85.111934000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>65</v>
       </c>
@@ -3164,16 +3164,16 @@
         <v>56432.944000000003</v>
       </c>
       <c r="D28" s="45">
-        <v>373596.329799</v>
+        <v>375492.07449099998</v>
       </c>
       <c r="E28" s="36">
-        <v>120899.084525</v>
+        <v>119306.610094</v>
       </c>
       <c r="F28" s="37">
-        <v>4.5093480000000001</v>
-      </c>
-      <c r="G28" s="38">
-        <v>7123.758879</v>
+        <v>4.7247399999999997</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H28" s="39">
         <v>4.496486</v>
@@ -3200,7 +3200,7 @@
         <v>64.594813000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>67</v>
       </c>
@@ -3211,25 +3211,25 @@
         <v>31964.955999999998</v>
       </c>
       <c r="D29" s="45">
-        <v>60207.266592</v>
+        <v>60294.576842000002</v>
       </c>
       <c r="E29" s="36">
-        <v>17420.498361999998</v>
+        <v>17420.501486000001</v>
       </c>
       <c r="F29" s="37">
         <v>4.2</v>
       </c>
-      <c r="G29" s="38">
-        <v>1967.9447700000001</v>
+      <c r="G29" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H29" s="39">
         <v>7.6395860000000004</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K29" s="42">
         <v>0.48699999999999999</v>
@@ -3247,7 +3247,7 @@
         <v>84.796555999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
@@ -3258,16 +3258,16 @@
         <v>1271.1690000000001</v>
       </c>
       <c r="D30" s="45">
-        <v>39108.346969999999</v>
+        <v>39252.232161</v>
       </c>
       <c r="E30" s="36">
-        <v>14952.555415000001</v>
+        <v>14985.605307</v>
       </c>
       <c r="F30" s="37">
-        <v>4.7</v>
-      </c>
-      <c r="G30" s="38">
-        <v>31078.763525999999</v>
+        <v>4.9251230000000001</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H30" s="39">
         <v>3.5990410000000002</v>
@@ -3294,7 +3294,7 @@
         <v>15.827942999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>14256.566999999999</v>
       </c>
       <c r="D31" s="45">
-        <v>52855.404893999999</v>
+        <v>52932.053758000002</v>
       </c>
       <c r="E31" s="36">
         <v>14251.492134</v>
@@ -3313,8 +3313,8 @@
       <c r="F31" s="37">
         <v>8.8910219999999995</v>
       </c>
-      <c r="G31" s="38">
-        <v>3814.3468929999999</v>
+      <c r="G31" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H31" s="39">
         <v>4.7692420000000002</v>
@@ -3335,13 +3335,13 @@
         <v>63.503999999999998</v>
       </c>
       <c r="N31" s="44">
-        <v>86.777000000000001</v>
+        <v>84.269000000000005</v>
       </c>
       <c r="O31" s="41">
         <v>37.981458000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -3352,19 +3352,19 @@
         <v>130.41800000000001</v>
       </c>
       <c r="D32" s="45">
-        <v>4015.5400989999998</v>
+        <v>4019.333075</v>
       </c>
       <c r="E32" s="36">
-        <v>2168.0173020000002</v>
+        <v>2177.793361</v>
       </c>
       <c r="F32" s="37">
-        <v>2.9998870000000002</v>
-      </c>
-      <c r="G32" s="38">
-        <v>39880.720080999999</v>
+        <v>2.9478870000000001</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H32" s="39">
-        <v>0.18449599999999999</v>
+        <v>0.31139299999999998</v>
       </c>
       <c r="I32" s="40">
         <v>32.1</v>
@@ -3379,16 +3379,16 @@
         <v>0.755</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N32" s="44">
-        <v>16.552</v>
+        <v>14.222</v>
       </c>
       <c r="O32" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
@@ -3399,25 +3399,25 @@
         <v>19009.151000000002</v>
       </c>
       <c r="D33" s="45">
-        <v>30437.304661999999</v>
+        <v>30510.752745000002</v>
       </c>
       <c r="E33" s="36">
-        <v>12134.463178</v>
+        <v>12160.996427</v>
       </c>
       <c r="F33" s="37">
-        <v>4</v>
-      </c>
-      <c r="G33" s="38">
-        <v>1844.6080039999999</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H33" s="39">
         <v>5.5287660000000001</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K33" s="42">
         <v>0.40400000000000003</v>
@@ -3435,7 +3435,7 @@
         <v>45.139645999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>77</v>
       </c>
@@ -3446,19 +3446,19 @@
         <v>11943.407999999999</v>
       </c>
       <c r="D34" s="73">
-        <v>11591.213959000001</v>
+        <v>11903.329441</v>
       </c>
       <c r="E34" s="74">
-        <v>5422.7482819999996</v>
+        <v>4647.7466729999996</v>
       </c>
       <c r="F34" s="75">
-        <v>-27.606536999999999</v>
-      </c>
-      <c r="G34" s="76">
-        <v>750.31756700000005</v>
+        <v>-26.141120999999998</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H34" s="77">
-        <v>128.401126</v>
+        <v>99.814105999999995</v>
       </c>
       <c r="I34" s="78">
         <v>44</v>
@@ -3473,16 +3473,16 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="M34" s="78" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N34" s="82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O34" s="79">
         <v>72.312067999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>79</v>
       </c>
@@ -3493,25 +3493,25 @@
         <v>50448.962</v>
       </c>
       <c r="D35" s="45">
-        <v>115162.31222199999</v>
+        <v>115327.63409199999</v>
       </c>
       <c r="E35" s="36">
-        <v>28269.683980000002</v>
+        <v>29183.695961000001</v>
       </c>
       <c r="F35" s="37">
         <v>-23.362849000000001</v>
       </c>
-      <c r="G35" s="38">
-        <v>2343.5367860000001</v>
+      <c r="G35" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H35" s="39">
-        <v>176.77917099999999</v>
+        <v>185.68144899999999</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K35" s="42">
         <v>0.51100000000000001</v>
@@ -3520,7 +3520,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N35" s="44">
         <v>94.405000000000001</v>
@@ -3529,7 +3529,7 @@
         <v>39.665306999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>81</v>
       </c>
@@ -3540,19 +3540,19 @@
         <v>68560.157000000007</v>
       </c>
       <c r="D36" s="45">
-        <v>269757.02417699998</v>
+        <v>270439.01623200002</v>
       </c>
       <c r="E36" s="36">
-        <v>80171.408689999997</v>
+        <v>79235.713506999993</v>
       </c>
       <c r="F36" s="37">
-        <v>5.4360819999999999</v>
-      </c>
-      <c r="G36" s="38">
-        <v>4135.4186689999997</v>
+        <v>5.4634029999999996</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H36" s="39">
-        <v>3.2434530000000001</v>
+        <v>3.0569470000000001</v>
       </c>
       <c r="I36" s="40">
         <v>40.5</v>
@@ -3576,7 +3576,7 @@
         <v>83.912363999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>83</v>
       </c>
@@ -3587,16 +3587,16 @@
         <v>50015.091999999997</v>
       </c>
       <c r="D37" s="48">
-        <v>171757.822999</v>
+        <v>172017.21225400001</v>
       </c>
       <c r="E37" s="49">
-        <v>56452.912042999997</v>
+        <v>56231.748806000003</v>
       </c>
       <c r="F37" s="50">
-        <v>6.292656</v>
-      </c>
-      <c r="G37" s="51">
-        <v>3683.9645289999999</v>
+        <v>6.2913079999999999</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="H37" s="52">
         <v>3.3230580000000001</v>
@@ -3623,7 +3623,7 @@
         <v>74.888412000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="58"/>
       <c r="B38" s="59" t="s">
         <v>85</v>
@@ -3632,16 +3632,16 @@
         <v>441663.54399999999</v>
       </c>
       <c r="D38" s="61">
-        <v>1583664.4597829999</v>
+        <v>1588024.2163410001</v>
       </c>
       <c r="E38" s="62">
-        <v>500979.11748199997</v>
+        <v>497407.19157999998</v>
       </c>
       <c r="F38" s="63">
-        <v>3.7232440000000002</v>
-      </c>
-      <c r="G38" s="64">
-        <v>3986.8877990000001</v>
+        <v>3.792284</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="H38" s="65">
         <v>4.496486</v>
@@ -3662,13 +3662,13 @@
         <v>72.019487999999996</v>
       </c>
       <c r="N38" s="70">
-        <v>75.835583</v>
+        <v>75.432417000000001</v>
       </c>
       <c r="O38" s="67">
         <v>75.253890999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>86</v>
       </c>
@@ -3679,25 +3679,25 @@
         <v>46814.307999999997</v>
       </c>
       <c r="D39" s="109">
-        <v>823878.46889200003</v>
+        <v>826100.13960400003</v>
       </c>
       <c r="E39" s="110">
-        <v>264912.98117500002</v>
+        <v>269139.94886200002</v>
       </c>
       <c r="F39" s="111">
-        <v>3.5356290000000001</v>
-      </c>
-      <c r="G39" s="112">
-        <v>17669.857661999999</v>
+        <v>3.7</v>
+      </c>
+      <c r="G39" s="112" t="s">
+        <v>18</v>
       </c>
       <c r="H39" s="113">
         <v>4.0461150000000004</v>
       </c>
       <c r="I39" s="114" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J39" s="115" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K39" s="116">
         <v>0.76300000000000001</v>
@@ -3709,13 +3709,13 @@
         <v>40.76</v>
       </c>
       <c r="N39" s="118" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O39" s="115">
         <v>27.414873</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
@@ -3726,16 +3726,16 @@
         <v>116538.258</v>
       </c>
       <c r="D40" s="45">
-        <v>2226518.8194090002</v>
+        <v>2229747.6309099998</v>
       </c>
       <c r="E40" s="36">
-        <v>383108.82494800002</v>
+        <v>383105.24261100002</v>
       </c>
       <c r="F40" s="37">
         <v>2.3988010000000002</v>
       </c>
-      <c r="G40" s="38">
-        <v>20749.634864</v>
+      <c r="G40" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H40" s="39">
         <v>33.301654999999997</v>
@@ -3762,7 +3762,7 @@
         <v>23.064875000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
@@ -3773,43 +3773,43 @@
         <v>7381.0230000000001</v>
       </c>
       <c r="D41" s="73">
-        <v>102962.28836599999</v>
+        <v>105764.10267399999</v>
       </c>
       <c r="E41" s="74">
-        <v>42158.710297999998</v>
+        <v>48362.759862999999</v>
       </c>
       <c r="F41" s="75">
-        <v>-0.63563800000000004</v>
-      </c>
-      <c r="G41" s="76">
-        <v>14893.734469000001</v>
+        <v>1.9204680000000001</v>
+      </c>
+      <c r="G41" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H41" s="77">
         <v>2.1261580000000002</v>
       </c>
       <c r="I41" s="78" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J41" s="79" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K41" s="80">
         <v>0.72099999999999997</v>
       </c>
       <c r="L41" s="81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M41" s="78">
         <v>48.246000000000002</v>
       </c>
       <c r="N41" s="82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O41" s="79">
         <v>12.759928</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>92</v>
       </c>
@@ -3820,19 +3820,19 @@
         <v>5169.3950000000004</v>
       </c>
       <c r="D42" s="73">
-        <v>37362.146406</v>
+        <v>38147.318792999999</v>
       </c>
       <c r="E42" s="74">
-        <v>10697.055308999999</v>
+        <v>11003.229552999999</v>
       </c>
       <c r="F42" s="75">
-        <v>4.5662229999999999</v>
-      </c>
-      <c r="G42" s="76">
-        <v>8250.3309250000002</v>
+        <v>6.3076020000000002</v>
+      </c>
+      <c r="G42" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H42" s="77">
-        <v>2.2845420000000001</v>
+        <v>2.4925130000000002</v>
       </c>
       <c r="I42" s="78">
         <v>32</v>
@@ -3856,7 +3856,7 @@
         <v>53.502935000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
@@ -3867,25 +3867,25 @@
         <v>38081.173000000003</v>
       </c>
       <c r="D43" s="45">
-        <v>398320.81252500002</v>
+        <v>403354.91338400001</v>
       </c>
       <c r="E43" s="36">
-        <v>155350.118651</v>
+        <v>160605.64350800001</v>
       </c>
       <c r="F43" s="37">
-        <v>3.1863999999999999</v>
-      </c>
-      <c r="G43" s="38">
-        <v>10658.838975999999</v>
+        <v>3.7933650000000001</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="39">
         <v>0.93537400000000004</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J43" s="41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K43" s="42">
         <v>0.71</v>
@@ -3897,13 +3897,13 @@
         <v>44.051000000000002</v>
       </c>
       <c r="N43" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O43" s="41">
         <v>35.906835000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>96</v>
       </c>
@@ -3914,16 +3914,16 @@
         <v>12277.109</v>
       </c>
       <c r="D44" s="85">
-        <v>176448.13999500001</v>
+        <v>177464.060142</v>
       </c>
       <c r="E44" s="86">
-        <v>53062.820351000002</v>
+        <v>52924.737964</v>
       </c>
       <c r="F44" s="87">
-        <v>1.3566480000000001</v>
-      </c>
-      <c r="G44" s="88">
-        <v>14304.042042999999</v>
+        <v>1.637624</v>
+      </c>
+      <c r="G44" s="88" t="s">
+        <v>18</v>
       </c>
       <c r="H44" s="89">
         <v>7.0068619999999999</v>
@@ -3950,7 +3950,7 @@
         <v>18.869363</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="58"/>
       <c r="B45" s="59" t="s">
         <v>98</v>
@@ -3959,16 +3959,16 @@
         <v>226261.266</v>
       </c>
       <c r="D45" s="61">
-        <v>3765490.6755929999</v>
+        <v>3780578.1655060002</v>
       </c>
       <c r="E45" s="62">
-        <v>909290.510733</v>
+        <v>925141.562362</v>
       </c>
       <c r="F45" s="63">
-        <v>2.6205479999999999</v>
-      </c>
-      <c r="G45" s="64">
-        <v>17587.729975999999</v>
+        <v>2.8222450000000001</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="H45" s="65">
         <v>33.301654999999997</v>
@@ -3995,7 +3995,7 @@
         <v>26.213832</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>99</v>
       </c>
@@ -4006,16 +4006,16 @@
         <v>14462.724</v>
       </c>
       <c r="D46" s="97">
-        <v>63571.111375</v>
+        <v>64228.87904</v>
       </c>
       <c r="E46" s="98">
-        <v>21249.128817000001</v>
+        <v>21487.287467999999</v>
       </c>
       <c r="F46" s="99">
-        <v>6.5064299999999999</v>
-      </c>
-      <c r="G46" s="100">
-        <v>4508.9969410000003</v>
+        <v>7.4526240000000001</v>
+      </c>
+      <c r="G46" s="100" t="s">
+        <v>18</v>
       </c>
       <c r="H46" s="101">
         <v>1.164995</v>
@@ -4042,7 +4042,7 @@
         <v>86.899332999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>101</v>
       </c>
@@ -4053,16 +4053,16 @@
         <v>23548.780999999999</v>
       </c>
       <c r="D47" s="45">
-        <v>67988.587859000007</v>
+        <v>68292.403319999998</v>
       </c>
       <c r="E47" s="36">
-        <v>23974.901250999999</v>
+        <v>23129.725445</v>
       </c>
       <c r="F47" s="37">
-        <v>4.4498249999999997</v>
-      </c>
-      <c r="G47" s="38">
-        <v>2851.4004530000002</v>
+        <v>4.797828</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H47" s="39">
         <v>4.1931190000000003</v>
@@ -4083,13 +4083,13 @@
         <v>47.146000000000001</v>
       </c>
       <c r="N47" s="44">
-        <v>95.155000000000001</v>
+        <v>93.756</v>
       </c>
       <c r="O47" s="41">
         <v>71.277730000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>103</v>
       </c>
@@ -4100,16 +4100,16 @@
         <v>524.87699999999995</v>
       </c>
       <c r="D48" s="73">
-        <v>5845.2184600000001</v>
+        <v>5884.5898939999997</v>
       </c>
       <c r="E48" s="74">
-        <v>2725.8057760000002</v>
+        <v>2725.9128970000002</v>
       </c>
       <c r="F48" s="75">
-        <v>5.9923859999999998</v>
-      </c>
-      <c r="G48" s="76">
-        <v>11426.842516000001</v>
+        <v>7.2438849999999997</v>
+      </c>
+      <c r="G48" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="H48" s="77">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>34.635675999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>105</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>31934.23</v>
       </c>
       <c r="D49" s="45">
-        <v>244522.690676</v>
+        <v>244877.288027</v>
       </c>
       <c r="E49" s="36">
         <v>87096.179944000003</v>
@@ -4155,11 +4155,11 @@
       <c r="F49" s="37">
         <v>6</v>
       </c>
-      <c r="G49" s="38">
-        <v>7645.4097510000001</v>
+      <c r="G49" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H49" s="39">
-        <v>3.4597169999999999</v>
+        <v>3.4156529999999998</v>
       </c>
       <c r="I49" s="40">
         <v>35.299999999999997</v>
@@ -4183,7 +4183,7 @@
         <v>73.306894</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>107</v>
       </c>
@@ -4194,16 +4194,16 @@
         <v>2759.9879999999998</v>
       </c>
       <c r="D50" s="45">
-        <v>9515.1031910000002</v>
+        <v>9507.2424559999999</v>
       </c>
       <c r="E50" s="36">
-        <v>2557.9144860000001</v>
+        <v>2355.4518050000001</v>
       </c>
       <c r="F50" s="37">
-        <v>5.8160920000000003</v>
-      </c>
-      <c r="G50" s="38">
-        <v>3493.6414049999998</v>
+        <v>5.3336100000000002</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H50" s="39">
         <v>11.563653</v>
@@ -4230,7 +4230,7 @@
         <v>65.784265000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>109</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>34427.413999999997</v>
       </c>
       <c r="D51" s="24">
-        <v>276355.035332</v>
+        <v>276755.794719</v>
       </c>
       <c r="E51" s="25">
         <v>82825.293147999997</v>
@@ -4249,8 +4249,8 @@
       <c r="F51" s="26">
         <v>5.6848729999999996</v>
       </c>
-      <c r="G51" s="27">
-        <v>8027.1797159999996</v>
+      <c r="G51" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="H51" s="28">
         <v>22.874645000000001</v>
@@ -4277,7 +4277,7 @@
         <v>68.217009000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>111</v>
       </c>
@@ -4288,19 +4288,19 @@
         <v>14754.786</v>
       </c>
       <c r="D52" s="45">
-        <v>68271.850573000003</v>
+        <v>68370.855771000002</v>
       </c>
       <c r="E52" s="36">
-        <v>25758.278054999999</v>
+        <v>24229.166433999999</v>
       </c>
       <c r="F52" s="37">
         <v>6.0732100000000004</v>
       </c>
-      <c r="G52" s="38">
-        <v>4428.2514570000003</v>
+      <c r="G52" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H52" s="39">
-        <v>8.1116379999999992</v>
+        <v>4.7120280000000001</v>
       </c>
       <c r="I52" s="40">
         <v>29.6</v>
@@ -4318,13 +4318,13 @@
         <v>51.999000000000002</v>
       </c>
       <c r="N52" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O52" s="41">
         <v>79.387353000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>113</v>
       </c>
@@ -4335,16 +4335,16 @@
         <v>2201.3519999999999</v>
       </c>
       <c r="D53" s="45">
-        <v>6136.1177189999999</v>
+        <v>6150.8852450000004</v>
       </c>
       <c r="E53" s="36">
-        <v>2184.27909</v>
+        <v>2186.3653159999999</v>
       </c>
       <c r="F53" s="37">
-        <v>4.7</v>
-      </c>
-      <c r="G53" s="38">
-        <v>3102.1878660000002</v>
+        <v>4.8</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H53" s="39">
         <v>3.7037040000000001</v>
@@ -4371,7 +4371,7 @@
         <v>77.918532999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>115</v>
       </c>
@@ -4382,16 +4382,16 @@
         <v>5612.817</v>
       </c>
       <c r="D54" s="45">
-        <v>10558.133886</v>
+        <v>10492.267315999999</v>
       </c>
       <c r="E54" s="36">
-        <v>4818.3413979999996</v>
+        <v>4777.5607470000004</v>
       </c>
       <c r="F54" s="37">
-        <v>4.8186939999999998</v>
-      </c>
-      <c r="G54" s="38">
-        <v>1898.603468</v>
+        <v>4.0139490000000002</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H54" s="39">
         <v>8.2149409999999996</v>
@@ -4418,7 +4418,7 @@
         <v>77.661173000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>117</v>
       </c>
@@ -4429,19 +4429,19 @@
         <v>24478.595000000001</v>
       </c>
       <c r="D55" s="45">
-        <v>67545.910365000003</v>
+        <v>67838.241748</v>
       </c>
       <c r="E55" s="36">
-        <v>22723.703482000001</v>
+        <v>22789.001480999999</v>
       </c>
       <c r="F55" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G55" s="38">
-        <v>2810.8203480000002</v>
+        <v>4.7</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H55" s="39">
-        <v>3.2211569999999998</v>
+        <v>3.1759629999999999</v>
       </c>
       <c r="I55" s="40">
         <v>35.700000000000003</v>
@@ -4465,7 +4465,7 @@
         <v>84.930454999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>119</v>
       </c>
@@ -4476,19 +4476,19 @@
         <v>27032.412</v>
       </c>
       <c r="D56" s="45">
-        <v>55780.793831000003</v>
+        <v>55861.589052000003</v>
       </c>
       <c r="E56" s="36">
         <v>19865.637010999999</v>
       </c>
       <c r="F56" s="37">
-        <v>10.300481</v>
-      </c>
-      <c r="G56" s="38">
-        <v>1986.506897</v>
+        <v>10.3</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H56" s="39">
-        <v>9.0715199999999996</v>
+        <v>9.0691360000000003</v>
       </c>
       <c r="I56" s="40">
         <v>32.9</v>
@@ -4512,7 +4512,7 @@
         <v>84.728662</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>121</v>
       </c>
@@ -4523,19 +4523,19 @@
         <v>232679.478</v>
       </c>
       <c r="D57" s="45">
-        <v>1498414.185696</v>
+        <v>2117405.2264410001</v>
       </c>
       <c r="E57" s="36">
-        <v>187640.182546</v>
+        <v>252109.39226299999</v>
       </c>
       <c r="F57" s="37">
-        <v>3.4264399999999999</v>
-      </c>
-      <c r="G57" s="38">
-        <v>6580.2751079999998</v>
+        <v>4.0627079999999998</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H57" s="39">
-        <v>33.241658999999999</v>
+        <v>31.425227</v>
       </c>
       <c r="I57" s="40">
         <v>35.1</v>
@@ -4553,13 +4553,13 @@
         <v>82.587000000000003</v>
       </c>
       <c r="N57" s="44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O57" s="41">
         <v>66.312601999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>123</v>
       </c>
@@ -4570,16 +4570,16 @@
         <v>18501.984</v>
       </c>
       <c r="D58" s="45">
-        <v>94702.977404000005</v>
+        <v>94595.115088000006</v>
       </c>
       <c r="E58" s="36">
-        <v>32891.868049999997</v>
+        <v>32815.545811000004</v>
       </c>
       <c r="F58" s="37">
-        <v>6.6787260000000002</v>
-      </c>
-      <c r="G58" s="38">
-        <v>5075.0378769999998</v>
+        <v>6.4029220000000002</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H58" s="39">
         <v>0.80371099999999995</v>
@@ -4606,7 +4606,7 @@
         <v>68.265814000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>125</v>
       </c>
@@ -4617,16 +4617,16 @@
         <v>8642.0220000000008</v>
       </c>
       <c r="D59" s="45">
-        <v>30253.971294999999</v>
+        <v>30515.309717</v>
       </c>
       <c r="E59" s="36">
-        <v>7653.4866910000001</v>
+        <v>7792.0583059999999</v>
       </c>
       <c r="F59" s="37">
-        <v>3.6810930000000002</v>
-      </c>
-      <c r="G59" s="38">
-        <v>3371.959026</v>
+        <v>4.4252719999999997</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="H59" s="39">
         <v>28.428540999999999</v>
@@ -4653,7 +4653,7 @@
         <v>86.884147999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>127</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>9515.2360000000008</v>
       </c>
       <c r="D60" s="48">
-        <v>30571.409795</v>
+        <v>30615.743270999999</v>
       </c>
       <c r="E60" s="49">
         <v>9776.4716279999993</v>
@@ -4672,11 +4672,11 @@
       <c r="F60" s="50">
         <v>5.3</v>
       </c>
-      <c r="G60" s="51">
-        <v>3290.7929100000001</v>
+      <c r="G60" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="H60" s="52">
-        <v>3.3</v>
+        <v>2.8755500000000001</v>
       </c>
       <c r="I60" s="53">
         <v>37.9</v>
@@ -4700,7 +4700,7 @@
         <v>80.690208999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="58"/>
       <c r="B61" s="59" t="s">
         <v>129</v>
@@ -4709,19 +4709,19 @@
         <v>451076.696</v>
       </c>
       <c r="D61" s="61">
-        <v>2530033.0974570001</v>
+        <v>3151391.431107</v>
       </c>
       <c r="E61" s="62">
-        <v>533741.47137299995</v>
+        <v>595961.049704</v>
       </c>
       <c r="F61" s="63">
-        <v>4.4469539999999999</v>
-      </c>
-      <c r="G61" s="64">
-        <v>5673.712931</v>
+        <v>4.7054520000000002</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>18</v>
       </c>
       <c r="H61" s="65">
-        <v>33.241658999999999</v>
+        <v>31.425227</v>
       </c>
       <c r="I61" s="66">
         <v>36.24</v>
@@ -4739,13 +4739,13 @@
         <v>72.707798999999994</v>
       </c>
       <c r="N61" s="70">
-        <v>89.886538000000002</v>
+        <v>89.778923000000006</v>
       </c>
       <c r="O61" s="67">
         <v>70.782393999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="120"/>
       <c r="B62" s="121" t="s">
         <v>130</v>
@@ -4754,19 +4754,19 @@
         <v>1513340.0109999999</v>
       </c>
       <c r="D62" s="123">
-        <v>10189855.88961</v>
+        <v>10883252.863012001</v>
       </c>
       <c r="E62" s="124">
-        <v>2795125.3779850001</v>
+        <v>2890446.7308999998</v>
       </c>
       <c r="F62" s="125">
-        <v>3.1748219999999998</v>
-      </c>
-      <c r="G62" s="126">
-        <v>7041.3368220000002</v>
+        <v>3.3948209999999999</v>
+      </c>
+      <c r="G62" s="126" t="s">
+        <v>18</v>
       </c>
       <c r="H62" s="127">
-        <v>21.745999999999999</v>
+        <v>21.044523000000002</v>
       </c>
       <c r="I62" s="128">
         <v>40.145454999999998</v>
@@ -4784,13 +4784,13 @@
         <v>65.717442000000005</v>
       </c>
       <c r="N62" s="132">
-        <v>80.247614999999996</v>
+        <v>80.322948999999994</v>
       </c>
       <c r="O62" s="129">
         <v>65.954605999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="120"/>
       <c r="B63" s="121" t="s">
         <v>131</v>
@@ -4799,25 +4799,25 @@
         <v>6602024.3430000003</v>
       </c>
       <c r="D63" s="123">
-        <v>183203907.78942999</v>
+        <v>184280775.45463601</v>
       </c>
       <c r="E63" s="124">
-        <v>106360980.16062699</v>
+        <v>106813419.47137401</v>
       </c>
       <c r="F63" s="125">
-        <v>3.293933</v>
-      </c>
-      <c r="G63" s="126">
-        <v>28356.341692999998</v>
+        <v>3.3205610000000001</v>
+      </c>
+      <c r="G63" s="126" t="s">
+        <v>18</v>
       </c>
       <c r="H63" s="127">
         <v>2.867232</v>
       </c>
       <c r="I63" s="128">
-        <v>34.363999999999997</v>
+        <v>34.343000000000004</v>
       </c>
       <c r="J63" s="129">
-        <v>2.605</v>
+        <v>2.59</v>
       </c>
       <c r="K63" s="130">
         <v>0.80325500000000005</v>
@@ -4829,13 +4829,13 @@
         <v>60.524876999999996</v>
       </c>
       <c r="N63" s="132">
-        <v>37.673223</v>
+        <v>37.622138</v>
       </c>
       <c r="O63" s="129">
         <v>40.503301</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="133"/>
       <c r="B64" s="134" t="s">
         <v>132</v>
@@ -4844,25 +4844,25 @@
         <v>658524.26399999997</v>
       </c>
       <c r="D64" s="136">
-        <v>14150159.183364</v>
+        <v>14194848.016775001</v>
       </c>
       <c r="E64" s="137">
-        <v>6756579.2246859996</v>
+        <v>6782683.5873480001</v>
       </c>
       <c r="F64" s="138">
-        <v>2.3697309999999998</v>
-      </c>
-      <c r="G64" s="139">
-        <v>21770.331134</v>
+        <v>2.381081</v>
+      </c>
+      <c r="G64" s="139" t="s">
+        <v>18</v>
       </c>
       <c r="H64" s="140">
         <v>4.3674179999999998</v>
       </c>
       <c r="I64" s="141">
-        <v>43.340909000000003</v>
+        <v>43.3</v>
       </c>
       <c r="J64" s="142">
-        <v>3.486364</v>
+        <v>3.4772729999999998</v>
       </c>
       <c r="K64" s="143">
         <v>0.768424</v>
@@ -4874,13 +4874,13 @@
         <v>62.703440999999998</v>
       </c>
       <c r="N64" s="145">
-        <v>53.26088</v>
+        <v>52.890680000000003</v>
       </c>
       <c r="O64" s="142">
         <v>33.059672999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="133"/>
       <c r="B65" s="146" t="s">
         <v>133</v>
@@ -4889,25 +4889,25 @@
         <v>4392496.523</v>
       </c>
       <c r="D65" s="148">
-        <v>72936308.686041996</v>
+        <v>73195884.622062996</v>
       </c>
       <c r="E65" s="149">
-        <v>28055329.669819001</v>
+        <v>28078812.882087</v>
       </c>
       <c r="F65" s="150">
-        <v>5.136037</v>
-      </c>
-      <c r="G65" s="151">
-        <v>17164.902094000001</v>
+        <v>5.1443770000000004</v>
+      </c>
+      <c r="G65" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H65" s="152">
-        <v>0.21247199999999999</v>
+        <v>0.212313</v>
       </c>
       <c r="I65" s="153">
-        <v>32.886364</v>
+        <v>32.831817999999998</v>
       </c>
       <c r="J65" s="154">
-        <v>5.2863639999999998</v>
+        <v>5.2272730000000003</v>
       </c>
       <c r="K65" s="155">
         <v>0.69179299999999999</v>
@@ -4919,13 +4919,13 @@
         <v>60.071269999999998</v>
       </c>
       <c r="N65" s="157">
-        <v>71.847700000000003</v>
+        <v>71.843050000000005</v>
       </c>
       <c r="O65" s="154">
         <v>53.394198000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="133"/>
       <c r="B66" s="158" t="s">
         <v>134</v>
@@ -4934,25 +4934,25 @@
         <v>8115364.3540000003</v>
       </c>
       <c r="D66" s="160">
-        <v>193393763.67904001</v>
+        <v>195164028.31764901</v>
       </c>
       <c r="E66" s="161">
-        <v>109156105.53861199</v>
+        <v>109703866.20227399</v>
       </c>
       <c r="F66" s="162">
-        <v>3.2876569999999998</v>
-      </c>
-      <c r="G66" s="163">
-        <v>24337.148028</v>
+        <v>3.3247019999999998</v>
+      </c>
+      <c r="G66" s="163" t="s">
+        <v>18</v>
       </c>
       <c r="H66" s="164">
         <v>2.951606</v>
       </c>
       <c r="I66" s="165">
-        <v>36.130555999999999</v>
+        <v>36.115971999999999</v>
       </c>
       <c r="J66" s="166">
-        <v>13.077083</v>
+        <v>13.066667000000001</v>
       </c>
       <c r="K66" s="167">
         <v>0.74002599999999996</v>
@@ -4964,13 +4964,13 @@
         <v>61.271296</v>
       </c>
       <c r="N66" s="169">
-        <v>50.157443999999998</v>
+        <v>50.143428999999998</v>
       </c>
       <c r="O66" s="166">
         <v>44.400798999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="133"/>
       <c r="B67" s="146" t="s">
         <v>135</v>
@@ -4979,16 +4979,16 @@
         <v>681527.85699999996</v>
       </c>
       <c r="D67" s="148">
-        <v>4240073.7489780001</v>
+        <v>4297647.9136039997</v>
       </c>
       <c r="E67" s="149">
-        <v>1048013.595504</v>
+        <v>1069461.730125</v>
       </c>
       <c r="F67" s="150">
-        <v>2.8748559999999999</v>
-      </c>
-      <c r="G67" s="151">
-        <v>6782.2323900000001</v>
+        <v>2.9558089999999999</v>
+      </c>
+      <c r="G67" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H67" s="152">
         <v>33.301654999999997</v>
@@ -5009,13 +5009,13 @@
         <v>62.230471999999999</v>
       </c>
       <c r="N67" s="157">
-        <v>73.332234999999997</v>
+        <v>73.047646999999998</v>
       </c>
       <c r="O67" s="154">
         <v>66.122135999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="133"/>
       <c r="B68" s="146" t="s">
         <v>136</v>
@@ -5024,19 +5024,19 @@
         <v>725044.83900000004</v>
       </c>
       <c r="D68" s="148">
-        <v>5674601.1733299997</v>
+        <v>6311585.4617769998</v>
       </c>
       <c r="E68" s="149">
-        <v>1238601.319351</v>
+        <v>1314203.381237</v>
       </c>
       <c r="F68" s="150">
-        <v>2.7696800000000001</v>
-      </c>
-      <c r="G68" s="151">
-        <v>8216.6519260000005</v>
+        <v>3.179948</v>
+      </c>
+      <c r="G68" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H68" s="152">
-        <v>33.241658999999999</v>
+        <v>31.425227</v>
       </c>
       <c r="I68" s="153">
         <v>35.9</v>
@@ -5054,13 +5054,13 @@
         <v>62.940511000000001</v>
       </c>
       <c r="N68" s="157">
-        <v>85.567420999999996</v>
+        <v>85.493789000000007</v>
       </c>
       <c r="O68" s="154">
         <v>60.938721999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="133"/>
       <c r="B69" s="146" t="s">
         <v>137</v>
@@ -5069,16 +5069,16 @@
         <v>324532.21899999998</v>
       </c>
       <c r="D69" s="148">
-        <v>1079722.440624</v>
+        <v>1091260.5479659999</v>
       </c>
       <c r="E69" s="149">
-        <v>352951.01524600002</v>
+        <v>352997.97509800002</v>
       </c>
       <c r="F69" s="150">
-        <v>5.2235870000000002</v>
-      </c>
-      <c r="G69" s="151">
-        <v>3528.1127809999998</v>
+        <v>5.3162649999999996</v>
+      </c>
+      <c r="G69" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H69" s="152">
         <v>4.496486</v>
@@ -5099,13 +5099,13 @@
         <v>72.727345999999997</v>
       </c>
       <c r="N69" s="157">
-        <v>91.762600000000006</v>
+        <v>91.260999999999996</v>
       </c>
       <c r="O69" s="154">
         <v>76.553837999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="133"/>
       <c r="B70" s="146" t="s">
         <v>138</v>
@@ -5114,16 +5114,16 @@
         <v>241219.989</v>
       </c>
       <c r="D70" s="148">
-        <v>989302.30466300005</v>
+        <v>1001372.097267</v>
       </c>
       <c r="E70" s="149">
-        <v>329649.86723799998</v>
+        <v>335122.53382900002</v>
       </c>
       <c r="F70" s="150">
-        <v>4.5096809999999996</v>
-      </c>
-      <c r="G70" s="151">
-        <v>4226.063521</v>
+        <v>4.5447740000000003</v>
+      </c>
+      <c r="G70" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H70" s="152">
         <v>17.652528</v>
@@ -5144,13 +5144,13 @@
         <v>67.082564000000005</v>
       </c>
       <c r="N70" s="157">
-        <v>93.162000000000006</v>
+        <v>92.534999999999997</v>
       </c>
       <c r="O70" s="154">
         <v>74.891827000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="133"/>
       <c r="B71" s="146" t="s">
         <v>139</v>
@@ -5159,19 +5159,19 @@
         <v>451076.696</v>
       </c>
       <c r="D71" s="148">
-        <v>2530033.0974570001</v>
+        <v>3151391.431107</v>
       </c>
       <c r="E71" s="149">
-        <v>533741.47137299995</v>
+        <v>595961.049704</v>
       </c>
       <c r="F71" s="150">
-        <v>4.4469539999999999</v>
-      </c>
-      <c r="G71" s="151">
-        <v>5673.712931</v>
+        <v>4.7054520000000002</v>
+      </c>
+      <c r="G71" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="152">
-        <v>33.241658999999999</v>
+        <v>31.425227</v>
       </c>
       <c r="I71" s="153">
         <v>36.24</v>
@@ -5189,13 +5189,13 @@
         <v>72.707798999999994</v>
       </c>
       <c r="N71" s="157">
-        <v>89.886538000000002</v>
+        <v>89.778923000000006</v>
       </c>
       <c r="O71" s="154">
         <v>70.782393999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="133"/>
       <c r="B72" s="146" t="s">
         <v>140</v>
@@ -5204,16 +5204,16 @@
         <v>321078.04599999997</v>
       </c>
       <c r="D72" s="148">
-        <v>1154290.2975409999</v>
+        <v>1157651.4205090001</v>
       </c>
       <c r="E72" s="149">
-        <v>370558.841587</v>
+        <v>367894.42730799998</v>
       </c>
       <c r="F72" s="150">
-        <v>3.0320209999999999</v>
-      </c>
-      <c r="G72" s="151">
-        <v>4042.3442650000002</v>
+        <v>3.1133920000000002</v>
+      </c>
+      <c r="G72" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H72" s="152">
         <v>5.5287660000000001</v>
@@ -5240,7 +5240,7 @@
         <v>73.381112999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="133"/>
       <c r="B73" s="146" t="s">
         <v>141</v>
@@ -5249,19 +5249,19 @@
         <v>417330.52500000002</v>
       </c>
       <c r="D73" s="148">
-        <v>2320206.39225</v>
+        <v>2371274.3658070001</v>
       </c>
       <c r="E73" s="149">
-        <v>838841.09845399996</v>
+        <v>856038.84529600001</v>
       </c>
       <c r="F73" s="150">
-        <v>2.674499</v>
-      </c>
-      <c r="G73" s="151">
-        <v>5642.2017390000001</v>
+        <v>2.636612</v>
+      </c>
+      <c r="G73" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H73" s="152">
-        <v>4.4261059999999999</v>
+        <v>4.425942</v>
       </c>
       <c r="I73" s="153">
         <v>46.884614999999997</v>
@@ -5279,13 +5279,13 @@
         <v>70.792570999999995</v>
       </c>
       <c r="N73" s="157">
-        <v>72.367999999999995</v>
+        <v>72.824332999999996</v>
       </c>
       <c r="O73" s="154">
         <v>69.299238000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="133"/>
       <c r="B74" s="146" t="s">
         <v>142</v>
@@ -5294,16 +5294,16 @@
         <v>109723.008</v>
       </c>
       <c r="D74" s="148">
-        <v>1538971.8561839999</v>
+        <v>1550830.5345960001</v>
       </c>
       <c r="E74" s="149">
-        <v>526181.68578499998</v>
+        <v>542036.31975000002</v>
       </c>
       <c r="F74" s="150">
-        <v>2.9413619999999998</v>
-      </c>
-      <c r="G74" s="151">
-        <v>14229.428975999999</v>
+        <v>3.431063</v>
+      </c>
+      <c r="G74" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H74" s="152">
         <v>4.0461150000000004</v>
@@ -5330,7 +5330,7 @@
         <v>29.466069000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="133"/>
       <c r="B75" s="146" t="s">
         <v>143</v>
@@ -5339,16 +5339,16 @@
         <v>75479.38</v>
       </c>
       <c r="D75" s="171">
-        <v>454979.59298299998</v>
+        <v>456577.44797099999</v>
       </c>
       <c r="E75" s="172">
-        <v>143595.806301</v>
+        <v>143699.85795400001</v>
       </c>
       <c r="F75" s="173">
-        <v>4.170458</v>
-      </c>
-      <c r="G75" s="174">
-        <v>6022.8860070000001</v>
+        <v>4.1599199999999996</v>
+      </c>
+      <c r="G75" s="174" t="s">
+        <v>18</v>
       </c>
       <c r="H75" s="175">
         <v>28.231788999999999</v>
@@ -5375,7 +5375,7 @@
         <v>71.872406999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="133"/>
       <c r="B76" s="181" t="s">
         <v>144</v>
@@ -5384,25 +5384,25 @@
         <v>693748.79099999997</v>
       </c>
       <c r="D76" s="183">
-        <v>12311768.754135</v>
+        <v>12292752.35249</v>
       </c>
       <c r="E76" s="184">
-        <v>3950649.8726530001</v>
+        <v>3952643.4772800002</v>
       </c>
       <c r="F76" s="185">
-        <v>4.8297650000000001</v>
-      </c>
-      <c r="G76" s="186">
-        <v>17966.028339</v>
+        <v>4.849615</v>
+      </c>
+      <c r="G76" s="186" t="s">
+        <v>18</v>
       </c>
       <c r="H76" s="187">
         <v>2.2996259999999999</v>
       </c>
       <c r="I76" s="188">
-        <v>36.457143000000002</v>
+        <v>36.285713999999999</v>
       </c>
       <c r="J76" s="189">
-        <v>5.6571429999999996</v>
+        <v>5.4714289999999997</v>
       </c>
       <c r="K76" s="190">
         <v>0.74460000000000004</v>
@@ -5414,13 +5414,13 @@
         <v>66.303279000000003</v>
       </c>
       <c r="N76" s="192">
-        <v>71.600429000000005</v>
+        <v>71.643570999999994</v>
       </c>
       <c r="O76" s="189">
         <v>47.564239999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="133"/>
       <c r="B77" s="146" t="s">
         <v>145</v>
@@ -5429,16 +5429,16 @@
         <v>439814.88699999999</v>
       </c>
       <c r="D77" s="148">
-        <v>9706062.3982379995</v>
+        <v>9738405.4477370009</v>
       </c>
       <c r="E77" s="149">
-        <v>4372998.9133540001</v>
+        <v>4392850.2509199996</v>
       </c>
       <c r="F77" s="150">
-        <v>2.5454910000000002</v>
-      </c>
-      <c r="G77" s="151">
-        <v>21978.707613999999</v>
+        <v>2.5673439999999998</v>
+      </c>
+      <c r="G77" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H77" s="152">
         <v>4.3674179999999998</v>
@@ -5459,13 +5459,13 @@
         <v>63.454234999999997</v>
       </c>
       <c r="N77" s="157">
-        <v>55.203231000000002</v>
+        <v>54.801614999999998</v>
       </c>
       <c r="O77" s="154">
         <v>33.870151</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="133"/>
       <c r="B78" s="146" t="s">
         <v>146</v>
@@ -5474,16 +5474,16 @@
         <v>450259.53399999999</v>
       </c>
       <c r="D78" s="148">
-        <v>28100055.630049001</v>
+        <v>28159321.315749999</v>
       </c>
       <c r="E78" s="149">
-        <v>19412831.319619998</v>
+        <v>19459716.990549002</v>
       </c>
       <c r="F78" s="150">
-        <v>1.1163590000000001</v>
-      </c>
-      <c r="G78" s="151">
-        <v>62265.339857999999</v>
+        <v>1.1470050000000001</v>
+      </c>
+      <c r="G78" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H78" s="152">
         <v>2.4894069999999999</v>
@@ -5504,13 +5504,13 @@
         <v>57.522044000000001</v>
       </c>
       <c r="N78" s="157">
-        <v>2.5961850000000002</v>
+        <v>2.535593</v>
       </c>
       <c r="O78" s="154">
         <v>10.657386000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="133"/>
       <c r="B79" s="158" t="s">
         <v>147</v>
@@ -5519,25 +5519,25 @@
         <v>1400813.432</v>
       </c>
       <c r="D79" s="160">
-        <v>85476535.192946002</v>
+        <v>85768176.613263994</v>
       </c>
       <c r="E79" s="161">
-        <v>67798274.186046004</v>
+        <v>68001921.256162003</v>
       </c>
       <c r="F79" s="162">
-        <v>1.7679020000000001</v>
-      </c>
-      <c r="G79" s="163">
-        <v>61165.109597000002</v>
+        <v>1.783852</v>
+      </c>
+      <c r="G79" s="163" t="s">
+        <v>18</v>
       </c>
       <c r="H79" s="164">
         <v>2.951606</v>
       </c>
       <c r="I79" s="165">
-        <v>33.318919000000001</v>
+        <v>33.294595000000001</v>
       </c>
       <c r="J79" s="166">
-        <v>0.72972999999999999</v>
+        <v>0.72432399999999997</v>
       </c>
       <c r="K79" s="167">
         <v>0.91657900000000003</v>
@@ -5549,13 +5549,13 @@
         <v>60.717601000000002</v>
       </c>
       <c r="N79" s="169">
-        <v>9.5150000000000006</v>
+        <v>9.4875939999999996</v>
       </c>
       <c r="O79" s="166">
         <v>12.398603</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="133"/>
       <c r="B80" s="181" t="s">
         <v>148</v>
@@ -5564,16 +5564,16 @@
         <v>140782.41200000001</v>
       </c>
       <c r="D80" s="183">
-        <v>1546888.3563570001</v>
+        <v>1556386.3909120001</v>
       </c>
       <c r="E80" s="184">
-        <v>509151.94993</v>
+        <v>519372.22527400003</v>
       </c>
       <c r="F80" s="185">
-        <v>3.1502319999999999</v>
-      </c>
-      <c r="G80" s="186">
-        <v>11208.474464999999</v>
+        <v>3.486097</v>
+      </c>
+      <c r="G80" s="186" t="s">
+        <v>18</v>
       </c>
       <c r="H80" s="187">
         <v>4.0461150000000004</v>
@@ -5600,7 +5600,7 @@
         <v>54.381055000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="133"/>
       <c r="B81" s="146" t="s">
         <v>149</v>
@@ -5609,16 +5609,16 @@
         <v>522258.886</v>
       </c>
       <c r="D81" s="148">
-        <v>15689340.781282</v>
+        <v>16259967.847989</v>
       </c>
       <c r="E81" s="149">
-        <v>5916320.9319390003</v>
+        <v>6110576.9415899999</v>
       </c>
       <c r="F81" s="150">
-        <v>3.238461</v>
-      </c>
-      <c r="G81" s="151">
-        <v>30089.504122999999</v>
+        <v>3.4314939999999998</v>
+      </c>
+      <c r="G81" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H81" s="152">
         <v>8.4435579999999995</v>
@@ -5639,13 +5639,13 @@
         <v>54.927973000000001</v>
       </c>
       <c r="N81" s="157">
-        <v>51.802750000000003</v>
+        <v>52.131875000000001</v>
       </c>
       <c r="O81" s="154">
         <v>21.077781999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="133"/>
       <c r="B82" s="146" t="s">
         <v>150</v>
@@ -5654,19 +5654,19 @@
         <v>1372557.5989999999</v>
       </c>
       <c r="D82" s="148">
-        <v>8642967.5332529992</v>
+        <v>9326866.4721000008</v>
       </c>
       <c r="E82" s="149">
-        <v>2285973.428055</v>
+        <v>2371074.505626</v>
       </c>
       <c r="F82" s="150">
-        <v>3.1792229999999999</v>
-      </c>
-      <c r="G82" s="151">
-        <v>6612.8121590000001</v>
+        <v>3.3795899999999999</v>
+      </c>
+      <c r="G82" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H82" s="152">
-        <v>21.745999999999999</v>
+        <v>22.874645000000001</v>
       </c>
       <c r="I82" s="153">
         <v>40.075676000000001</v>
@@ -5684,13 +5684,13 @@
         <v>66.731295000000003</v>
       </c>
       <c r="N82" s="157">
-        <v>79.639171000000005</v>
+        <v>79.723113999999995</v>
       </c>
       <c r="O82" s="154">
         <v>66.930187000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="133"/>
       <c r="B83" s="158" t="s">
         <v>151</v>
@@ -5699,25 +5699,25 @@
         <v>6079765.4570000004</v>
       </c>
       <c r="D83" s="160">
-        <v>167514567.00814801</v>
+        <v>168020807.60664701</v>
       </c>
       <c r="E83" s="161">
-        <v>100444659.228688</v>
+        <v>100702842.52978399</v>
       </c>
       <c r="F83" s="162">
-        <v>3.2991290000000002</v>
-      </c>
-      <c r="G83" s="163">
-        <v>28204.847729000001</v>
+        <v>3.309825</v>
+      </c>
+      <c r="G83" s="163" t="s">
+        <v>18</v>
       </c>
       <c r="H83" s="164">
-        <v>2.739258</v>
+        <v>2.7386050000000002</v>
       </c>
       <c r="I83" s="165">
-        <v>34.391111000000002</v>
+        <v>34.367778000000001</v>
       </c>
       <c r="J83" s="166">
-        <v>2.7322220000000002</v>
+        <v>2.7155559999999999</v>
       </c>
       <c r="K83" s="167">
         <v>0.80848699999999996</v>
@@ -5729,13 +5729,13 @@
         <v>60.977375000000002</v>
       </c>
       <c r="N83" s="169">
-        <v>36.358848999999999</v>
+        <v>36.272395000000003</v>
       </c>
       <c r="O83" s="166">
         <v>41.920293999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="133"/>
       <c r="B84" s="181" t="s">
         <v>152</v>
@@ -5744,19 +5744,19 @@
         <v>490205.85800000001</v>
       </c>
       <c r="D84" s="183">
-        <v>1080838.917802</v>
+        <v>1093866.2701290001</v>
       </c>
       <c r="E84" s="184">
-        <v>358909.910615</v>
+        <v>363102.13311499998</v>
       </c>
       <c r="F84" s="185">
-        <v>1.880145</v>
-      </c>
-      <c r="G84" s="186">
-        <v>2291.7221749999999</v>
+        <v>2.0903299999999998</v>
+      </c>
+      <c r="G84" s="186" t="s">
+        <v>18</v>
       </c>
       <c r="H84" s="187">
-        <v>5.7061349999999997</v>
+        <v>5.5287660000000001</v>
       </c>
       <c r="I84" s="188">
         <v>39.347059000000002</v>
@@ -5774,13 +5774,13 @@
         <v>68.450305</v>
       </c>
       <c r="N84" s="192">
-        <v>92.962249999999997</v>
+        <v>92.718062000000003</v>
       </c>
       <c r="O84" s="189">
         <v>76.084115999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="133"/>
       <c r="B85" s="193" t="s">
         <v>153</v>
@@ -5789,19 +5789,19 @@
         <v>134402.239</v>
       </c>
       <c r="D85" s="148">
-        <v>69187.913612999997</v>
+        <v>164549.90878999999</v>
       </c>
       <c r="E85" s="149">
-        <v>19100.710975999998</v>
+        <v>37180.741555000001</v>
       </c>
       <c r="F85" s="150">
-        <v>-1.5</v>
-      </c>
-      <c r="G85" s="151">
-        <v>1704.842746</v>
+        <v>0.38123499999999999</v>
+      </c>
+      <c r="G85" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H85" s="152">
-        <v>33.917634999999997</v>
+        <v>-4.2629900000000003</v>
       </c>
       <c r="I85" s="153">
         <v>26.6</v>
@@ -5825,7 +5825,7 @@
         <v>70.476412999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="133"/>
       <c r="B86" s="146" t="s">
         <v>154</v>
@@ -5834,19 +5834,19 @@
         <v>763992.79700000002</v>
       </c>
       <c r="D86" s="148">
-        <v>6561419.4717859998</v>
+        <v>7234556.5916309999</v>
       </c>
       <c r="E86" s="149">
-        <v>1513308.600749</v>
+        <v>1593779.4008589999</v>
       </c>
       <c r="F86" s="150">
-        <v>3.5096340000000001</v>
-      </c>
-      <c r="G86" s="151">
-        <v>8949.7950299999993</v>
+        <v>3.7315770000000001</v>
+      </c>
+      <c r="G86" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H86" s="152">
-        <v>33.241658999999999</v>
+        <v>31.425227</v>
       </c>
       <c r="I86" s="153">
         <v>41.185000000000002</v>
@@ -5864,13 +5864,13 @@
         <v>66.343771000000004</v>
       </c>
       <c r="N86" s="157">
-        <v>78.389411999999993</v>
+        <v>78.876881999999995</v>
       </c>
       <c r="O86" s="154">
         <v>62.343243000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="133"/>
       <c r="B87" s="146" t="s">
         <v>155</v>
@@ -5879,19 +5879,19 @@
         <v>2352850.6719999998</v>
       </c>
       <c r="D87" s="148">
-        <v>24630127.708149001</v>
+        <v>24632843.412168998</v>
       </c>
       <c r="E87" s="149">
-        <v>6320662.4233130002</v>
+        <v>6316049.4676639996</v>
       </c>
       <c r="F87" s="150">
-        <v>5.7907739999999999</v>
-      </c>
-      <c r="G87" s="151">
-        <v>10571.513569999999</v>
+        <v>5.8262169999999998</v>
+      </c>
+      <c r="G87" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H87" s="152">
-        <v>4.6678889999999997</v>
+        <v>4.6261089999999996</v>
       </c>
       <c r="I87" s="153">
         <v>33.735294000000003</v>
@@ -5909,13 +5909,13 @@
         <v>56.934308999999999</v>
       </c>
       <c r="N87" s="157">
-        <v>74.998943999999995</v>
+        <v>74.943888999999999</v>
       </c>
       <c r="O87" s="154">
         <v>64.676243999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="133"/>
       <c r="B88" s="146" t="s">
         <v>156</v>
@@ -5924,16 +5924,16 @@
         <v>126951.171</v>
       </c>
       <c r="D88" s="148">
-        <v>2100972.8458389998</v>
+        <v>2107559.6994710001</v>
       </c>
       <c r="E88" s="149">
-        <v>777615.99862800003</v>
+        <v>789314.88647400006</v>
       </c>
       <c r="F88" s="150">
-        <v>1.768232</v>
-      </c>
-      <c r="G88" s="151">
-        <v>16808.043906999999</v>
+        <v>1.9374199999999999</v>
+      </c>
+      <c r="G88" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H88" s="152">
         <v>4.0461150000000004</v>
@@ -5954,13 +5954,13 @@
         <v>50.586008999999997</v>
       </c>
       <c r="N88" s="157">
-        <v>51.969250000000002</v>
+        <v>52.191249999999997</v>
       </c>
       <c r="O88" s="154">
         <v>19.061449</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="133"/>
       <c r="B89" s="146" t="s">
         <v>157</v>
@@ -5969,25 +5969,25 @@
         <v>2702961.6469999999</v>
       </c>
       <c r="D89" s="148">
-        <v>67076542.105313003</v>
+        <v>67370844.793595999</v>
       </c>
       <c r="E89" s="149">
-        <v>29916381.349727999</v>
+        <v>30001601.972502001</v>
       </c>
       <c r="F89" s="150">
-        <v>4.1833640000000001</v>
-      </c>
-      <c r="G89" s="151">
-        <v>25195.874154000001</v>
+        <v>4.1881370000000002</v>
+      </c>
+      <c r="G89" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H89" s="152">
-        <v>0.21247199999999999</v>
+        <v>0.212313</v>
       </c>
       <c r="I89" s="153">
-        <v>36.710811</v>
+        <v>36.678378000000002</v>
       </c>
       <c r="J89" s="154">
-        <v>2.2567569999999999</v>
+        <v>2.221622</v>
       </c>
       <c r="K89" s="155">
         <v>0.77517800000000003</v>
@@ -5999,13 +5999,13 @@
         <v>63.574516000000003</v>
       </c>
       <c r="N89" s="157">
-        <v>49.759580999999997</v>
+        <v>49.622613000000001</v>
       </c>
       <c r="O89" s="154">
         <v>39.740149000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="133"/>
       <c r="B90" s="158" t="s">
         <v>158</v>
@@ -6014,25 +6014,25 @@
         <v>1383534.66</v>
       </c>
       <c r="D90" s="160">
-        <v>91204786.521423995</v>
+        <v>91888918.468564004</v>
       </c>
       <c r="E90" s="161">
-        <v>69987196.162426993</v>
+        <v>70340962.119755998</v>
       </c>
       <c r="F90" s="162">
-        <v>1.9641470000000001</v>
-      </c>
-      <c r="G90" s="163">
-        <v>65942.272851000002</v>
+        <v>2.0131209999999999</v>
+      </c>
+      <c r="G90" s="163" t="s">
+        <v>18</v>
       </c>
       <c r="H90" s="164">
         <v>2.951606</v>
       </c>
       <c r="I90" s="165">
-        <v>32.828260999999998</v>
+        <v>32.808695999999998</v>
       </c>
       <c r="J90" s="166">
-        <v>0.56739099999999998</v>
+        <v>0.56304299999999996</v>
       </c>
       <c r="K90" s="167">
         <v>0.89642900000000003</v>
@@ -6044,13 +6044,13 @@
         <v>61.211599999999997</v>
       </c>
       <c r="N90" s="169">
-        <v>11.837432</v>
+        <v>11.794364</v>
       </c>
       <c r="O90" s="166">
         <v>8.4637840000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="133"/>
       <c r="B91" s="181" t="s">
         <v>159</v>
@@ -6059,16 +6059,16 @@
         <v>807288.24899999995</v>
       </c>
       <c r="D91" s="183">
-        <v>2549490.0070400001</v>
+        <v>2566668.8603559998</v>
       </c>
       <c r="E91" s="184">
-        <v>823094.06274700002</v>
+        <v>823516.07657200005</v>
       </c>
       <c r="F91" s="185">
-        <v>4.2637549999999997</v>
-      </c>
-      <c r="G91" s="186">
-        <v>3357.975402</v>
+        <v>4.3724489999999996</v>
+      </c>
+      <c r="G91" s="186" t="s">
+        <v>18</v>
       </c>
       <c r="H91" s="187">
         <v>14.985626</v>
@@ -6089,13 +6089,13 @@
         <v>68.831519</v>
       </c>
       <c r="N91" s="192">
-        <v>90.122808000000006</v>
+        <v>90.291269</v>
       </c>
       <c r="O91" s="189">
         <v>77.595091999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="133"/>
       <c r="B92" s="146" t="s">
         <v>160</v>
@@ -6104,16 +6104,16 @@
         <v>380489.342</v>
       </c>
       <c r="D92" s="148">
-        <v>2487343.8186440002</v>
+        <v>2548414.3057749998</v>
       </c>
       <c r="E92" s="149">
-        <v>668392.04422399995</v>
+        <v>683657.36153800006</v>
       </c>
       <c r="F92" s="150">
-        <v>3.2910780000000002</v>
-      </c>
-      <c r="G92" s="151">
-        <v>7382.4341370000002</v>
+        <v>3.3390659999999999</v>
+      </c>
+      <c r="G92" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H92" s="152">
         <v>9.73</v>
@@ -6140,7 +6140,7 @@
         <v>56.885415999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="133"/>
       <c r="B93" s="146" t="s">
         <v>161</v>
@@ -6149,16 +6149,16 @@
         <v>5229.9799999999996</v>
       </c>
       <c r="D93" s="148">
-        <v>60003.942304999997</v>
+        <v>60215.081698000002</v>
       </c>
       <c r="E93" s="149">
-        <v>24282.675347</v>
+        <v>24345.685743999999</v>
       </c>
       <c r="F93" s="150">
-        <v>4.5412840000000001</v>
-      </c>
-      <c r="G93" s="151">
-        <v>11918.782869000001</v>
+        <v>4.8231599999999997</v>
+      </c>
+      <c r="G93" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H93" s="152">
         <v>3.5990410000000002</v>
@@ -6179,13 +6179,13 @@
         <v>56.501862000000003</v>
       </c>
       <c r="N93" s="157">
-        <v>59.572400000000002</v>
+        <v>59.106400000000001</v>
       </c>
       <c r="O93" s="154">
         <v>50.298654999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="133"/>
       <c r="B94" s="146" t="s">
         <v>162</v>
@@ -6194,16 +6194,16 @@
         <v>62757.375</v>
       </c>
       <c r="D94" s="148">
-        <v>1555735.769693</v>
+        <v>1562508.457773</v>
       </c>
       <c r="E94" s="149">
-        <v>860225.44707500003</v>
+        <v>861984.24933100003</v>
       </c>
       <c r="F94" s="150">
-        <v>5.7159170000000001</v>
-      </c>
-      <c r="G94" s="151">
-        <v>29826.145337999998</v>
+        <v>5.7151810000000003</v>
+      </c>
+      <c r="G94" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H94" s="152">
         <v>2.3895110000000002</v>
@@ -6224,13 +6224,13 @@
         <v>60.524352</v>
       </c>
       <c r="N94" s="157">
-        <v>47.868842000000001</v>
+        <v>47.785842000000002</v>
       </c>
       <c r="O94" s="154">
         <v>42.028717</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="133"/>
       <c r="B95" s="146" t="s">
         <v>163</v>
@@ -6239,16 +6239,16 @@
         <v>388718.22</v>
       </c>
       <c r="D95" s="148">
-        <v>1235239.285708</v>
+        <v>1278616.9275160001</v>
       </c>
       <c r="E95" s="149">
-        <v>412675.73307700001</v>
+        <v>424356.425728</v>
       </c>
       <c r="F95" s="150">
-        <v>5.3764099999999999</v>
-      </c>
-      <c r="G95" s="151">
-        <v>3450.5518750000001</v>
+        <v>5.3561399999999999</v>
+      </c>
+      <c r="G95" s="151" t="s">
+        <v>18</v>
       </c>
       <c r="H95" s="152">
         <v>14.985626</v>
@@ -6269,13 +6269,13 @@
         <v>67.767003000000003</v>
       </c>
       <c r="N95" s="157">
-        <v>86.281082999999995</v>
+        <v>86.646083000000004</v>
       </c>
       <c r="O95" s="154">
         <v>77.929062000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="133"/>
       <c r="B96" s="158" t="s">
         <v>164</v>
@@ -6284,16 +6284,16 @@
         <v>204072.15</v>
       </c>
       <c r="D96" s="160">
-        <v>2576224.1032170001</v>
+        <v>2644030.8875119998</v>
       </c>
       <c r="E96" s="161">
-        <v>826345.84969399997</v>
+        <v>837179.12312100001</v>
       </c>
       <c r="F96" s="162">
-        <v>4.5680680000000002</v>
-      </c>
-      <c r="G96" s="163">
-        <v>16249.806339999999</v>
+        <v>4.564775</v>
+      </c>
+      <c r="G96" s="163" t="s">
+        <v>18</v>
       </c>
       <c r="H96" s="164">
         <v>8.6756609999999998</v>
@@ -6314,13 +6314,13 @@
         <v>54.752713999999997</v>
       </c>
       <c r="N96" s="169">
-        <v>62.230817999999999</v>
+        <v>62.347273000000001</v>
       </c>
       <c r="O96" s="166">
         <v>49.662222999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="133"/>
       <c r="B97" s="181" t="s">
         <v>165</v>
@@ -6329,19 +6329,19 @@
         <v>1158179.1610000001</v>
       </c>
       <c r="D97" s="183">
-        <v>4995929.9416169999</v>
+        <v>5675218.1344760004</v>
       </c>
       <c r="E97" s="184">
-        <v>1345855.6873029999</v>
+        <v>1430725.41916</v>
       </c>
       <c r="F97" s="185">
-        <v>3.8371599999999999</v>
-      </c>
-      <c r="G97" s="186">
-        <v>4523.4810809999999</v>
+        <v>4.1040869999999998</v>
+      </c>
+      <c r="G97" s="186" t="s">
+        <v>18</v>
       </c>
       <c r="H97" s="187">
-        <v>21.745999999999999</v>
+        <v>21.044523000000002</v>
       </c>
       <c r="I97" s="188">
         <v>39.975000000000001</v>
@@ -6359,13 +6359,13 @@
         <v>71.544949000000003</v>
       </c>
       <c r="N97" s="192">
-        <v>88.551000000000002</v>
+        <v>88.406295999999998</v>
       </c>
       <c r="O97" s="189">
         <v>73.400565</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="133"/>
       <c r="B98" s="158" t="s">
         <v>166</v>
@@ -6374,16 +6374,16 @@
         <v>878940.55599999998</v>
       </c>
       <c r="D98" s="160">
-        <v>7178068.324945</v>
+        <v>7333923.6741669998</v>
       </c>
       <c r="E98" s="161">
-        <v>2084599.569436</v>
+        <v>2102569.7692149999</v>
       </c>
       <c r="F98" s="162">
-        <v>2.8864139999999998</v>
-      </c>
-      <c r="G98" s="163">
-        <v>9510.4178599999996</v>
+        <v>2.9230139999999998</v>
+      </c>
+      <c r="G98" s="163" t="s">
+        <v>18</v>
       </c>
       <c r="H98" s="164">
         <v>23.410793999999999</v>
@@ -6410,7 +6410,7 @@
         <v>53.044120999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="194"/>
       <c r="B99" s="195"/>
       <c r="C99" s="172"/>
@@ -6427,7 +6427,7 @@
       <c r="N99" s="172"/>
       <c r="O99" s="172"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="N100" s="196"/>
       <c r="O100" s="196"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="N101" s="196"/>
       <c r="O101" s="196"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="N102" s="196"/>
       <c r="O102" s="196"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="N103" s="196"/>
       <c r="O103" s="196"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="N104" s="196"/>
       <c r="O104" s="196"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>172</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="N105" s="196"/>
       <c r="O105" s="196"/>
     </row>
-    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="197"/>
       <c r="C106" s="196"/>
       <c r="D106" s="196"/>
@@ -6551,7 +6551,7 @@
       <c r="N106" s="196"/>
       <c r="O106" s="196"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B107" s="198" t="s">
         <v>173</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="N107" s="196"/>
       <c r="O107" s="196"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="196"/>
       <c r="D108" s="196"/>
@@ -6585,7 +6585,7 @@
       <c r="N108" s="196"/>
       <c r="O108" s="196"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="201" t="s">
         <v>175</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="N109" s="196"/>
       <c r="O109" s="196"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="201" t="s">
         <v>176</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="N110" s="196"/>
       <c r="O110" s="196"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B111" s="201" t="s">
         <v>177</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="N111" s="196"/>
       <c r="O111" s="196"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>174</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="N112" s="196"/>
       <c r="O112" s="196"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="199"/>
       <c r="C113" s="196"/>
       <c r="D113" s="196"/>
@@ -6675,11 +6675,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{AF89FDDA-7B8B-4D40-876C-BDE4E1D9D922}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{8C9D0ABC-5A6D-48ED-99C0-0540D8E0BAFB}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{1B5A8C5D-B359-4C3F-AD58-7E484DE80826}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{92498FA0-A65F-4304-B7EE-19482C6EB24A}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{3B286D60-2613-48AB-A179-32D0B0608D9B}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{9B9458E5-65F5-4DCA-8CEF-1A4E9D515B72}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{0AF0BDE1-7056-442F-BC50-5AA80EDECB5E}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{C9E10BE7-C481-4705-B023-ACE38D45CD0A}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DC8F1916-3E7C-4CC3-AEB1-864702E5D31D}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{805E62CC-0F84-4F47-AC1A-1B805D8AE8E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab01.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBBBC7C0-2340-4C86-8B5C-5448318AB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB2D1A2-1206-4581-8EF1-A5C98DD25DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E398B3BB-678C-4A2F-A67B-30A7AAFAB9A1}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{4BD70E82-66B8-4193-B47D-38E26C1A7F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab01'!$A$2:$O$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab01'!$A$1:$L$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab01'!$A$2:$L$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab01'!$A$1:$L$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,60 +37,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="178">
-  <si>
-    <t>Table 1: Indicators of growth, employment and inequality</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Population (thousands), 2024</t>
-  </si>
-  <si>
-    <t>Nominal gross domestic product in purchasing-power-parity dollars (millions), 2024</t>
-  </si>
-  <si>
-    <t>Gross domestic product in U.S. dollars (millions), 2024</t>
-  </si>
-  <si>
-    <t>Real GDP growth (%), 2024</t>
-  </si>
-  <si>
-    <t>GDP in purchasing power parity (PPP) dollars per capita, 2024</t>
-  </si>
-  <si>
-    <t>Inflation (average consumer prices), 2024</t>
-  </si>
-  <si>
-    <t>Gini coefficient (World Bank estimate), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>% of population in extreme poverty ($3.00 a day)(1), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Human development index (HDI), 2023</t>
-  </si>
-  <si>
-    <t>Inequality-adjusted HDI (IHDI), 2023</t>
-  </si>
-  <si>
-    <t>Total workers aged 15+, 2024</t>
-  </si>
-  <si>
-    <t>Percentage of informal employment in total employment, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Total workers aged 15+ classified as own-account workers, 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="180">
+  <si>
+    <t>Tableau 1 : Indicateurs de croissance, d'emploi et d'inégalités</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Population (en milliers), 2024</t>
+  </si>
+  <si>
+    <t>Produit intérieur brut nominal en dollars US en parité de pouvoir d'achat (millions), 2024</t>
+  </si>
+  <si>
+    <t>Produit intérieur brut en dollars américains (millions), 2024</t>
+  </si>
+  <si>
+    <t>Croissance réelle du PIB (%), 2024</t>
+  </si>
+  <si>
+    <t>PIB en parité de pouvoir d'achat (PPA) en dollars US par habitant, 2024</t>
+  </si>
+  <si>
+    <t>Inflation, prix moyens à la consommation, 2024</t>
+  </si>
+  <si>
+    <t>Coefficient de Gini (estimations de la Banque Mondiale), données les plus récentes 2015-24</t>
+  </si>
+  <si>
+    <t>% de la population en extrême pauvreté ($3.00 par jour)(1), mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Indice de développement humain (IDH), 2023</t>
+  </si>
+  <si>
+    <t>IDH ajusté aux inégalités (IDHI), 2023</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, 2024</t>
+  </si>
+  <si>
+    <t>Pourcentage de l'emploi informel dans l'emploi total, données les plus récentes 2015-24</t>
+  </si>
+  <si>
+    <t>Total des travailleurs âgés de 15 ans et plus classés comme travailleurs à leur propre compte, 2022</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>..</t>
@@ -129,19 +129,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -150,7 +150,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -162,58 +165,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -225,13 +228,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -249,7 +252,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -267,79 +270,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -351,7 +354,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -363,7 +366,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -375,13 +378,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -411,7 +414,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -426,22 +429,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -450,19 +453,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -480,97 +483,101 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
-  </si>
-  <si>
-    <t>Source: World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division, United Nations Development Programme Human Development Data Online (2025 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025), IMF World Economic Outlook Database October 2025, International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Pour les chiffres globaux de l'inflation, les valeurs médianes sont pondérées par le PIB en dollars PPA.</t>
+  </si>
+  <si>
+    <t>Source : Perspectives de la population mondiale 2024 – Division de la population du Département des affaires économiques et sociales des Nations Unies, Données en ligne sur le développement humain du Programme des Nations Unies pour le développement (édition 2025), Indicateurs du développement mondial de la Banque mondiale (base de données et publications provenant des banques centrales, des agences nationales de statistiques et des bureaux-pays de la Banque mondiale – 03/07/2025), Base de données des Perspectives économiques mondiales du FMI (octobre 2025), Organisation internationale du travail – ILOSTAT (consulté le 09/09/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -584,7 +591,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,16 +723,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1030,7 +1027,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1618,8 +1615,7 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1902,19 +1898,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25212625-CD9E-407F-8A3B-0952091E706F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB5C421-F588-47F8-8840-1D1AE288EF41}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.1796875" style="200" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="199" customWidth="1"/>
+    <col min="4" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2453,9 +2450,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58"/>
+      <c r="A13" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" s="59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="60">
         <v>205260.932</v>
@@ -2499,10 +2498,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="35">
         <v>14047.786</v>
@@ -2546,10 +2545,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="35">
         <v>29123.743999999999</v>
@@ -2593,10 +2592,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="35">
         <v>5330.69</v>
@@ -2640,10 +2639,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="72">
         <v>20299.123</v>
@@ -2687,10 +2686,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="72">
         <v>6332.9610000000002</v>
@@ -2734,10 +2733,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="23">
         <v>109276.265</v>
@@ -2781,10 +2780,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="72">
         <v>1892.5160000000001</v>
@@ -2828,10 +2827,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="72">
         <v>2538.9520000000002</v>
@@ -2875,10 +2874,10 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="84">
         <v>235.536</v>
@@ -2921,9 +2920,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="58"/>
+      <c r="A23" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="B23" s="59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="60">
         <v>189077.573</v>
@@ -2967,10 +2968,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="96">
         <v>866.62800000000004</v>
@@ -3014,10 +3015,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="35">
         <v>1168.722</v>
@@ -3061,10 +3062,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="35">
         <v>3535.6030000000001</v>
@@ -3108,10 +3109,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="35">
         <v>132059.76699999999</v>
@@ -3155,10 +3156,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="35">
         <v>56432.944000000003</v>
@@ -3202,10 +3203,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="35">
         <v>31964.955999999998</v>
@@ -3249,10 +3250,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="35">
         <v>1271.1690000000001</v>
@@ -3296,10 +3297,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="35">
         <v>14256.566999999999</v>
@@ -3343,10 +3344,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="35">
         <v>130.41800000000001</v>
@@ -3390,10 +3391,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="35">
         <v>19009.151000000002</v>
@@ -3437,10 +3438,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="72">
         <v>11943.407999999999</v>
@@ -3484,10 +3485,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="35">
         <v>50448.962</v>
@@ -3531,10 +3532,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="35">
         <v>68560.157000000007</v>
@@ -3578,10 +3579,10 @@
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="47">
         <v>50015.091999999997</v>
@@ -3624,9 +3625,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="58"/>
+      <c r="A38" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="B38" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="60">
         <v>441663.54399999999</v>
@@ -3670,10 +3673,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="108">
         <v>46814.307999999997</v>
@@ -3717,10 +3720,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="35">
         <v>116538.258</v>
@@ -3764,10 +3767,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="72">
         <v>7381.0230000000001</v>
@@ -3811,10 +3814,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="72">
         <v>5169.3950000000004</v>
@@ -3858,10 +3861,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="35">
         <v>38081.173000000003</v>
@@ -3905,10 +3908,10 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="84">
         <v>12277.109</v>
@@ -3951,9 +3954,11 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="58"/>
+      <c r="A45" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="B45" s="59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="60">
         <v>226261.266</v>
@@ -3997,10 +4002,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="96">
         <v>14462.724</v>
@@ -4044,10 +4049,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="35">
         <v>23548.780999999999</v>
@@ -4091,10 +4096,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="72">
         <v>524.87699999999995</v>
@@ -4138,10 +4143,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="35">
         <v>31934.23</v>
@@ -4185,10 +4190,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="35">
         <v>2759.9879999999998</v>
@@ -4232,10 +4237,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="23">
         <v>34427.413999999997</v>
@@ -4279,10 +4284,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="35">
         <v>14754.786</v>
@@ -4326,10 +4331,10 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="35">
         <v>2201.3519999999999</v>
@@ -4373,10 +4378,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="35">
         <v>5612.817</v>
@@ -4420,10 +4425,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="35">
         <v>24478.595000000001</v>
@@ -4467,10 +4472,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="35">
         <v>27032.412</v>
@@ -4514,10 +4519,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="35">
         <v>232679.478</v>
@@ -4561,10 +4566,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="35">
         <v>18501.984</v>
@@ -4608,10 +4613,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" s="35">
         <v>8642.0220000000008</v>
@@ -4655,10 +4660,10 @@
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" s="47">
         <v>9515.2360000000008</v>
@@ -4701,9 +4706,11 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="58"/>
+      <c r="A61" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="B61" s="59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="60">
         <v>451076.696</v>
@@ -4746,9 +4753,11 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="120"/>
+      <c r="A62" s="120" t="s">
+        <v>37</v>
+      </c>
       <c r="B62" s="121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="122">
         <v>1513340.0109999999</v>
@@ -4791,9 +4800,11 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="120"/>
+      <c r="A63" s="120" t="s">
+        <v>37</v>
+      </c>
       <c r="B63" s="121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="122">
         <v>6602024.3430000003</v>
@@ -4836,9 +4847,11 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="133"/>
+      <c r="A64" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B64" s="134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="135">
         <v>658524.26399999997</v>
@@ -4881,9 +4894,11 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="133"/>
+      <c r="A65" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B65" s="146" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="147">
         <v>4392496.523</v>
@@ -4926,9 +4941,11 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="133"/>
+      <c r="A66" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B66" s="158" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" s="159">
         <v>8115364.3540000003</v>
@@ -4971,9 +4988,11 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="133"/>
+      <c r="A67" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B67" s="146" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="147">
         <v>681527.85699999996</v>
@@ -5016,9 +5035,11 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="133"/>
+      <c r="A68" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B68" s="146" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="147">
         <v>725044.83900000004</v>
@@ -5061,9 +5082,11 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="133"/>
+      <c r="A69" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B69" s="146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="147">
         <v>324532.21899999998</v>
@@ -5106,9 +5129,11 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="133"/>
+      <c r="A70" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B70" s="146" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="147">
         <v>241219.989</v>
@@ -5151,9 +5176,11 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="133"/>
+      <c r="A71" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B71" s="146" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71" s="147">
         <v>451076.696</v>
@@ -5196,9 +5223,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="133"/>
+      <c r="A72" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B72" s="146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C72" s="147">
         <v>321078.04599999997</v>
@@ -5241,9 +5270,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="133"/>
+      <c r="A73" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B73" s="146" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C73" s="147">
         <v>417330.52500000002</v>
@@ -5286,9 +5317,11 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="133"/>
+      <c r="A74" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B74" s="146" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" s="147">
         <v>109723.008</v>
@@ -5331,9 +5364,11 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="133"/>
+      <c r="A75" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B75" s="146" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="170">
         <v>75479.38</v>
@@ -5376,9 +5411,11 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="133"/>
+      <c r="A76" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B76" s="181" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="182">
         <v>693748.79099999997</v>
@@ -5421,9 +5458,11 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="133"/>
+      <c r="A77" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B77" s="146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="147">
         <v>439814.88699999999</v>
@@ -5466,9 +5505,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="133"/>
+      <c r="A78" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B78" s="146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C78" s="147">
         <v>450259.53399999999</v>
@@ -5511,9 +5552,11 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="133"/>
+      <c r="A79" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B79" s="158" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79" s="159">
         <v>1400813.432</v>
@@ -5556,9 +5599,11 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="133"/>
+      <c r="A80" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B80" s="181" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" s="182">
         <v>140782.41200000001</v>
@@ -5601,9 +5646,11 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="133"/>
+      <c r="A81" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B81" s="146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" s="147">
         <v>522258.886</v>
@@ -5646,9 +5693,11 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="133"/>
+      <c r="A82" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B82" s="146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82" s="147">
         <v>1372557.5989999999</v>
@@ -5691,9 +5740,11 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="133"/>
+      <c r="A83" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B83" s="158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C83" s="159">
         <v>6079765.4570000004</v>
@@ -5736,9 +5787,11 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="133"/>
+      <c r="A84" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B84" s="181" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" s="182">
         <v>490205.85800000001</v>
@@ -5781,9 +5834,11 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="133"/>
+      <c r="A85" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B85" s="193" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C85" s="147">
         <v>134402.239</v>
@@ -5826,9 +5881,11 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="133"/>
+      <c r="A86" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B86" s="146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86" s="147">
         <v>763992.79700000002</v>
@@ -5871,9 +5928,11 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="133"/>
+      <c r="A87" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B87" s="146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C87" s="147">
         <v>2352850.6719999998</v>
@@ -5916,9 +5975,11 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="133"/>
+      <c r="A88" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B88" s="146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" s="147">
         <v>126951.171</v>
@@ -5961,9 +6022,11 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="133"/>
+      <c r="A89" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B89" s="146" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" s="147">
         <v>2702961.6469999999</v>
@@ -6006,9 +6069,11 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="133"/>
+      <c r="A90" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B90" s="158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" s="159">
         <v>1383534.66</v>
@@ -6051,9 +6116,11 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91" s="133"/>
+      <c r="A91" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B91" s="181" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" s="182">
         <v>807288.24899999995</v>
@@ -6096,9 +6163,11 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A92" s="133"/>
+      <c r="A92" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B92" s="146" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C92" s="147">
         <v>380489.342</v>
@@ -6141,9 +6210,11 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93" s="133"/>
+      <c r="A93" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B93" s="146" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C93" s="147">
         <v>5229.9799999999996</v>
@@ -6186,9 +6257,11 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="133"/>
+      <c r="A94" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B94" s="146" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" s="147">
         <v>62757.375</v>
@@ -6231,9 +6304,11 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95" s="133"/>
+      <c r="A95" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B95" s="146" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" s="147">
         <v>388718.22</v>
@@ -6276,9 +6351,11 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="133"/>
+      <c r="A96" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B96" s="158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96" s="159">
         <v>204072.15</v>
@@ -6321,9 +6398,11 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97" s="133"/>
+      <c r="A97" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B97" s="181" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C97" s="182">
         <v>1158179.1610000001</v>
@@ -6366,9 +6445,11 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="133"/>
+      <c r="A98" s="133" t="s">
+        <v>37</v>
+      </c>
       <c r="B98" s="158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C98" s="159">
         <v>878940.55599999998</v>
@@ -6429,7 +6510,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C100" s="196"/>
       <c r="D100" s="196"/>
@@ -6447,7 +6528,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" s="196"/>
       <c r="D101" s="196"/>
@@ -6465,7 +6546,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" s="196"/>
       <c r="D102" s="196"/>
@@ -6483,7 +6564,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C103" s="196"/>
       <c r="D103" s="196"/>
@@ -6501,7 +6582,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C104" s="196"/>
       <c r="D104" s="196"/>
@@ -6519,7 +6600,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C105" s="196"/>
       <c r="D105" s="196"/>
@@ -6536,6 +6617,9 @@
       <c r="O105" s="196"/>
     </row>
     <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B106" s="197"/>
       <c r="C106" s="196"/>
       <c r="D106" s="196"/>
@@ -6551,10 +6635,11 @@
       <c r="N106" s="196"/>
       <c r="O106" s="196"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B107" s="198" t="s">
-        <v>173</v>
-      </c>
+    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="197"/>
       <c r="C107" s="196"/>
       <c r="D107" s="196"/>
       <c r="E107" s="196"/>
@@ -6570,7 +6655,12 @@
       <c r="O107" s="196"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="200" t="s">
+        <v>178</v>
+      </c>
       <c r="C108" s="196"/>
       <c r="D108" s="196"/>
       <c r="E108" s="196"/>
@@ -6586,9 +6676,10 @@
       <c r="O108" s="196"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B109" s="201" t="s">
-        <v>175</v>
-      </c>
+      <c r="A109" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="196"/>
       <c r="D109" s="196"/>
       <c r="E109" s="196"/>
@@ -6604,8 +6695,11 @@
       <c r="O109" s="196"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B110" s="201" t="s">
-        <v>176</v>
+      <c r="A110" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C110" s="196"/>
       <c r="D110" s="196"/>
@@ -6622,8 +6716,11 @@
       <c r="O110" s="196"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="201" t="s">
-        <v>177</v>
+      <c r="A111" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C111" s="196"/>
       <c r="D111" s="196"/>
@@ -6640,8 +6737,11 @@
       <c r="O111" s="196"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>174</v>
+      </c>
+      <c r="B112" s="200" t="s">
+        <v>179</v>
       </c>
       <c r="C112" s="196"/>
       <c r="D112" s="196"/>
@@ -6657,8 +6757,13 @@
       <c r="N112" s="196"/>
       <c r="O112" s="196"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B113" s="199"/>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="200" t="s">
+        <v>177</v>
+      </c>
       <c r="C113" s="196"/>
       <c r="D113" s="196"/>
       <c r="E113" s="196"/>
@@ -6673,13 +6778,29 @@
       <c r="N113" s="196"/>
       <c r="O113" s="196"/>
     </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B114" s="198"/>
+      <c r="C114" s="196"/>
+      <c r="D114" s="196"/>
+      <c r="E114" s="196"/>
+      <c r="F114" s="196"/>
+      <c r="G114" s="196"/>
+      <c r="H114" s="196"/>
+      <c r="I114" s="196"/>
+      <c r="J114" s="196"/>
+      <c r="K114" s="196"/>
+      <c r="L114" s="196"/>
+      <c r="M114" s="196"/>
+      <c r="N114" s="196"/>
+      <c r="O114" s="196"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{9B9458E5-65F5-4DCA-8CEF-1A4E9D515B72}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{0AF0BDE1-7056-442F-BC50-5AA80EDECB5E}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{C9E10BE7-C481-4705-B023-ACE38D45CD0A}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DC8F1916-3E7C-4CC3-AEB1-864702E5D31D}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{805E62CC-0F84-4F47-AC1A-1B805D8AE8E0}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7646C8C4-4878-4BD4-843A-AD601C3D053A}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7BDF79AC-CEDB-4D1C-A641-14CC79F8419B}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{79151986-ABFE-4CEA-9448-AD4EA601ED99}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{31042741-8A52-40AA-AD46-546775A70DB1}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D0490E37-0CCC-42D9-AAD2-F6355C06B822}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
